--- a/exercises/dennis/exercise_4/Task_4_results/res_line/loading_percent.xlsx
+++ b/exercises/dennis/exercise_4/Task_4_results/res_line/loading_percent.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.30848926483631</v>
+        <v>10.30848926489851</v>
       </c>
       <c r="C2">
-        <v>10.71616705007605</v>
+        <v>10.71616704997413</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.351395865523857</v>
+        <v>9.351395865506205</v>
       </c>
       <c r="C3">
-        <v>9.711063514108117</v>
+        <v>9.711063514106648</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86199161247335</v>
+        <v>10.86199161238552</v>
       </c>
       <c r="C4">
-        <v>11.3488956327914</v>
+        <v>11.34889563273482</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.267775695283472</v>
+        <v>8.267775695432178</v>
       </c>
       <c r="C5">
-        <v>8.384052241300456</v>
+        <v>8.38405224142204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.02156308996552</v>
+        <v>8.02156308997594</v>
       </c>
       <c r="C6">
-        <v>8.02156308996552</v>
+        <v>8.02156308997594</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17253956436137</v>
+        <v>11.1725395644155</v>
       </c>
       <c r="C7">
-        <v>11.71980679700815</v>
+        <v>11.71980679705713</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.01526520389606</v>
+        <v>10.0152652040161</v>
       </c>
       <c r="C8">
-        <v>10.30887538167969</v>
+        <v>10.30887538160634</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.28790840677865</v>
+        <v>10.28790840668892</v>
       </c>
       <c r="C9">
-        <v>10.62516475647884</v>
+        <v>10.62516475648036</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.23717246785923</v>
+        <v>15.23717246781117</v>
       </c>
       <c r="C10">
-        <v>16.4833244464875</v>
+        <v>16.48332444673128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.72267071331544</v>
+        <v>14.7226707132647</v>
       </c>
       <c r="C11">
-        <v>15.87672479018075</v>
+        <v>15.87672479019624</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.31530492202345</v>
+        <v>11.31530492199827</v>
       </c>
       <c r="C12">
-        <v>11.74682085191141</v>
+        <v>11.74682085184311</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.29679688092396</v>
+        <v>17.29679688093118</v>
       </c>
       <c r="C13">
-        <v>19.11582082485092</v>
+        <v>19.11582082485829</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.91159697459713</v>
+        <v>12.91159697455737</v>
       </c>
       <c r="C14">
-        <v>13.52499727383624</v>
+        <v>13.52499727384114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81463307423917</v>
+        <v>16.8146330743627</v>
       </c>
       <c r="C15">
-        <v>18.36975577041756</v>
+        <v>18.36975577030475</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.28416630916709</v>
+        <v>20.28416630909841</v>
       </c>
       <c r="C16">
-        <v>22.54299375891066</v>
+        <v>22.54299375897429</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48815089089799</v>
+        <v>16.48815089097715</v>
       </c>
       <c r="C17">
-        <v>18.16300161182592</v>
+        <v>18.16300161175386</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.35139272661133</v>
+        <v>17.35139272679224</v>
       </c>
       <c r="C18">
-        <v>18.9651437521933</v>
+        <v>18.96514375208555</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02153694523899</v>
+        <v>15.02153694512602</v>
       </c>
       <c r="C19">
-        <v>16.25900096722008</v>
+        <v>16.25900096726252</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88868149011836</v>
+        <v>11.88868149014707</v>
       </c>
       <c r="C20">
-        <v>12.34421734620476</v>
+        <v>12.34421734624502</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99082945437378</v>
+        <v>17.99082945443303</v>
       </c>
       <c r="C21">
-        <v>19.74576120769343</v>
+        <v>19.74576120780136</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.00617598754553</v>
+        <v>17.00617598755834</v>
       </c>
       <c r="C22">
-        <v>18.81594722571172</v>
+        <v>18.81594722573503</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.52685583532351</v>
+        <v>21.52685583519597</v>
       </c>
       <c r="C23">
-        <v>24.33923093836068</v>
+        <v>24.33923093835051</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.2264234009669</v>
+        <v>20.22642340093999</v>
       </c>
       <c r="C24">
-        <v>22.95208930772468</v>
+        <v>22.95208930773465</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72482348784611</v>
+        <v>16.72482348800271</v>
       </c>
       <c r="C25">
-        <v>18.88556063011711</v>
+        <v>18.88556062997955</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16.49238964554371</v>
+        <v>16.49238964540493</v>
       </c>
       <c r="C26">
-        <v>18.6312130347587</v>
+        <v>18.63121303485974</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.69640857932337</v>
+        <v>18.69640857942827</v>
       </c>
       <c r="C27">
-        <v>21.54825777967129</v>
+        <v>21.54825777973326</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17.74791136174922</v>
+        <v>17.74791136177852</v>
       </c>
       <c r="C28">
-        <v>21.04432660777445</v>
+        <v>21.04432660781164</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.6608990749676</v>
+        <v>11.66089907491058</v>
       </c>
       <c r="C29">
-        <v>14.0185124305193</v>
+        <v>14.01851243043937</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.052867579997914</v>
+        <v>8.05286757990932</v>
       </c>
       <c r="C30">
-        <v>9.045790355517497</v>
+        <v>9.045790355569824</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.64009159524004</v>
+        <v>17.64009159509871</v>
       </c>
       <c r="C31">
-        <v>21.82625978032975</v>
+        <v>21.82625978021726</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.1782354552512</v>
+        <v>21.17823545527622</v>
       </c>
       <c r="C32">
-        <v>26.10752144873988</v>
+        <v>26.10752144879942</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.97946101620589</v>
+        <v>22.97946101618054</v>
       </c>
       <c r="C33">
-        <v>28.37443260140875</v>
+        <v>28.37443260144346</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.05413847448735</v>
+        <v>22.05413847455223</v>
       </c>
       <c r="C34">
-        <v>27.51232061759535</v>
+        <v>27.51232061761026</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>26.97741818948238</v>
+        <v>26.97741818953393</v>
       </c>
       <c r="C35">
-        <v>33.2736853697763</v>
+        <v>33.27368536974434</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>34.89767271878984</v>
+        <v>34.8976727187852</v>
       </c>
       <c r="C36">
-        <v>42.36218161601733</v>
+        <v>42.36218161610518</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42.4405892183117</v>
+        <v>42.4405892183252</v>
       </c>
       <c r="C37">
-        <v>51.18248923849345</v>
+        <v>51.18248923853134</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.9069495912131</v>
+        <v>43.90694959103477</v>
       </c>
       <c r="C38">
-        <v>52.97755834600085</v>
+        <v>52.97755834612211</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52.92476630269327</v>
+        <v>52.92476630266019</v>
       </c>
       <c r="C39">
-        <v>63.49835341449144</v>
+        <v>63.49835341447266</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>58.9620213789401</v>
+        <v>58.96202137889887</v>
       </c>
       <c r="C40">
-        <v>69.44270265702602</v>
+        <v>69.44270265720998</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>66.67555182732347</v>
+        <v>66.67555182738315</v>
       </c>
       <c r="C41">
-        <v>78.18164442968533</v>
+        <v>78.18164442954809</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>74.78881326436164</v>
+        <v>74.78881326435464</v>
       </c>
       <c r="C42">
-        <v>87.14315617641144</v>
+        <v>87.14315617633034</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>82.11402035765526</v>
+        <v>82.11402035758007</v>
       </c>
       <c r="C43">
-        <v>94.33991880027645</v>
+        <v>94.33991880033689</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>96.12077153421885</v>
+        <v>96.12077153421572</v>
       </c>
       <c r="C44">
-        <v>109.7981500577912</v>
+        <v>109.7981500577937</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>90.47201139425167</v>
+        <v>90.47201139436027</v>
       </c>
       <c r="C45">
-        <v>103.6420982245022</v>
+        <v>103.642098224448</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>99.05711920281016</v>
+        <v>99.05711920271217</v>
       </c>
       <c r="C46">
-        <v>111.6186773040221</v>
+        <v>111.618677304003</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>95.55247561250437</v>
+        <v>95.55247561231543</v>
       </c>
       <c r="C47">
-        <v>108.0337120625829</v>
+        <v>108.0337120625781</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>94.57969113346175</v>
+        <v>94.57969113330516</v>
       </c>
       <c r="C48">
-        <v>118.5485642558376</v>
+        <v>118.548564255829</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>95.74451637237982</v>
+        <v>95.74451637240738</v>
       </c>
       <c r="C49">
-        <v>108.3328245663021</v>
+        <v>108.3328245663653</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>98.76510277833596</v>
+        <v>98.76510277826601</v>
       </c>
       <c r="C50">
-        <v>111.6178644705285</v>
+        <v>111.6178644705545</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>98.83841785236875</v>
+        <v>98.83841785241465</v>
       </c>
       <c r="C51">
-        <v>111.9707397497654</v>
+        <v>111.9707397496891</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>86.23540171742341</v>
+        <v>86.23540171735591</v>
       </c>
       <c r="C52">
-        <v>98.12832893121734</v>
+        <v>98.12832893115635</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>88.60205787463831</v>
+        <v>88.60205787469145</v>
       </c>
       <c r="C53">
-        <v>100.6985177861928</v>
+        <v>100.6985177860224</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>85.39555019159602</v>
+        <v>85.39555019181138</v>
       </c>
       <c r="C54">
-        <v>97.14906403648845</v>
+        <v>97.14906403638601</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>81.92760295108673</v>
+        <v>81.92760295102117</v>
       </c>
       <c r="C55">
-        <v>93.48257511251774</v>
+        <v>93.48257511268898</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>78.28143174463949</v>
+        <v>78.28143174469464</v>
       </c>
       <c r="C56">
-        <v>89.29598501597927</v>
+        <v>89.2959850159355</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>80.63771283097945</v>
+        <v>80.63771283096266</v>
       </c>
       <c r="C57">
-        <v>91.77087843121254</v>
+        <v>91.77087843103378</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>72.82782470574382</v>
+        <v>72.82782470577125</v>
       </c>
       <c r="C58">
-        <v>83.13063234937594</v>
+        <v>83.13063234942344</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>72.63953961839283</v>
+        <v>72.63953961831982</v>
       </c>
       <c r="C59">
-        <v>82.7818160084736</v>
+        <v>82.78181600845342</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>68.56364067444882</v>
+        <v>68.56364067444143</v>
       </c>
       <c r="C60">
-        <v>78.01582382206952</v>
+        <v>78.01582382207182</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>63.08525641416717</v>
+        <v>63.08525641404621</v>
       </c>
       <c r="C61">
-        <v>72.13486042583186</v>
+        <v>72.13486042589918</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>63.30634936038913</v>
+        <v>63.30634936054781</v>
       </c>
       <c r="C62">
-        <v>72.09055771430769</v>
+        <v>72.09055771429026</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>55.60291588965133</v>
+        <v>55.60291588961673</v>
       </c>
       <c r="C63">
-        <v>63.41558847675039</v>
+        <v>63.41558847669096</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>60.82742286779621</v>
+        <v>60.82742286782259</v>
       </c>
       <c r="C64">
-        <v>69.05214455627949</v>
+        <v>69.05214455632579</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>53.28959512600693</v>
+        <v>53.28959512606028</v>
       </c>
       <c r="C65">
-        <v>60.67878705664178</v>
+        <v>60.67878705672229</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>44.50752642962628</v>
+        <v>44.50752642974719</v>
       </c>
       <c r="C66">
-        <v>50.90382057845601</v>
+        <v>50.90382057846779</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>35.93861022456134</v>
+        <v>35.93861022453961</v>
       </c>
       <c r="C67">
-        <v>41.28873909597699</v>
+        <v>41.28873909596644</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>28.09211910604235</v>
+        <v>28.09211910604301</v>
       </c>
       <c r="C68">
-        <v>32.50136672791205</v>
+        <v>32.50136672786002</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>22.46862977867976</v>
+        <v>22.46862977860517</v>
       </c>
       <c r="C69">
-        <v>26.49923917363453</v>
+        <v>26.49923917356989</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.527188382788589</v>
+        <v>8.52718838278825</v>
       </c>
       <c r="C70">
-        <v>10.05853954705331</v>
+        <v>10.05853954696704</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.383470221647887</v>
+        <v>7.383470221648785</v>
       </c>
       <c r="C71">
-        <v>7.427152399021226</v>
+        <v>7.427152399015421</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.76065955937431</v>
+        <v>17.76065955932668</v>
       </c>
       <c r="C72">
-        <v>17.76065955937431</v>
+        <v>17.76065955932668</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33.28467294517463</v>
+        <v>33.28467294524883</v>
       </c>
       <c r="C73">
-        <v>33.28467294517463</v>
+        <v>33.28467294524883</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.74990223396779</v>
+        <v>35.74990223388456</v>
       </c>
       <c r="C74">
-        <v>35.74990223396779</v>
+        <v>35.74990223388456</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>47.8806145337909</v>
+        <v>47.88061453383707</v>
       </c>
       <c r="C75">
-        <v>47.8806145337909</v>
+        <v>47.88061453383707</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>63.43452774313836</v>
+        <v>63.43452774300297</v>
       </c>
       <c r="C76">
-        <v>65.59941237549559</v>
+        <v>65.59941237531814</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>71.90330781993055</v>
+        <v>71.90330781989908</v>
       </c>
       <c r="C77">
-        <v>76.17658962158133</v>
+        <v>76.17658962154049</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>84.83565670861066</v>
+        <v>84.83565670858995</v>
       </c>
       <c r="C78">
-        <v>90.35466484044285</v>
+        <v>90.35466484033816</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>79.03464795334449</v>
+        <v>79.03464795341347</v>
       </c>
       <c r="C79">
-        <v>83.88971789628886</v>
+        <v>83.88971789619497</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>84.54631226160618</v>
+        <v>84.54631226159334</v>
       </c>
       <c r="C80">
-        <v>90.02573112995249</v>
+        <v>90.02573112956792</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>86.79710352093973</v>
+        <v>86.7971035206579</v>
       </c>
       <c r="C81">
-        <v>92.2703037872697</v>
+        <v>92.27030378714564</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>94.06743329653136</v>
+        <v>94.06743329647801</v>
       </c>
       <c r="C82">
-        <v>102.2903547472222</v>
+        <v>102.2903547471641</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>87.34119120597198</v>
+        <v>87.34119120588049</v>
       </c>
       <c r="C83">
-        <v>94.82963150279869</v>
+        <v>94.82963150265807</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>78.16696656916933</v>
+        <v>78.16696656926133</v>
       </c>
       <c r="C84">
-        <v>84.49063744453578</v>
+        <v>84.49063744445638</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>78.4278741017942</v>
+        <v>78.42787410186082</v>
       </c>
       <c r="C85">
-        <v>85.16310499231369</v>
+        <v>85.16310499242134</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>66.28047342196729</v>
+        <v>66.28047342205438</v>
       </c>
       <c r="C86">
-        <v>71.448810106195</v>
+        <v>71.44881010617092</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>71.62852903778662</v>
+        <v>71.6285290377174</v>
       </c>
       <c r="C87">
-        <v>77.58865566128735</v>
+        <v>77.58865566127898</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>66.65211761982897</v>
+        <v>66.65211761970899</v>
       </c>
       <c r="C88">
-        <v>72.28744400980712</v>
+        <v>72.28744400968063</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>50.75805556937387</v>
+        <v>50.75805556941339</v>
       </c>
       <c r="C89">
-        <v>54.28540697087239</v>
+        <v>54.2854069707289</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>53.62499962095273</v>
+        <v>53.62499962089834</v>
       </c>
       <c r="C90">
-        <v>57.76119329672387</v>
+        <v>57.76119329681024</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>42.30255236233226</v>
+        <v>42.30255236240818</v>
       </c>
       <c r="C91">
-        <v>45.20629148687777</v>
+        <v>45.20629148684236</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>30.22054217183159</v>
+        <v>30.2205421718649</v>
       </c>
       <c r="C92">
-        <v>31.35066324079569</v>
+        <v>31.35066324080838</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21.95102583878252</v>
+        <v>21.95102583890677</v>
       </c>
       <c r="C93">
-        <v>22.01999816884958</v>
+        <v>22.0199981689283</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16.97700748308009</v>
+        <v>16.97700748308413</v>
       </c>
       <c r="C94">
-        <v>16.97700748308009</v>
+        <v>16.97700748308413</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10.3145722821039</v>
+        <v>10.31457228209705</v>
       </c>
       <c r="C95">
-        <v>10.3145722821039</v>
+        <v>10.31457228209705</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.85221938131297</v>
+        <v>7.852219381364343</v>
       </c>
       <c r="C96">
-        <v>7.85221938131297</v>
+        <v>7.852219381364343</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.815744434670977</v>
+        <v>9.815744434505765</v>
       </c>
       <c r="C97">
-        <v>10.14715483144954</v>
+        <v>10.14715483152434</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.947368501530128</v>
+        <v>7.947368501585818</v>
       </c>
       <c r="C98">
-        <v>7.947368501530128</v>
+        <v>7.947368501585818</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>10.00566935057105</v>
+        <v>10.00566935073222</v>
       </c>
       <c r="C99">
-        <v>10.36510865943411</v>
+        <v>10.36510865945788</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.06871120092875</v>
+        <v>10.06871120088353</v>
       </c>
       <c r="C100">
-        <v>10.32302514433865</v>
+        <v>10.32302514426894</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.83517871357238</v>
+        <v>13.83517871355324</v>
       </c>
       <c r="C101">
-        <v>14.94976338491872</v>
+        <v>14.94976338489131</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.857041550798034</v>
+        <v>9.857041550704929</v>
       </c>
       <c r="C102">
-        <v>10.00946226286982</v>
+        <v>10.0094622628403</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.2309780827056</v>
+        <v>13.2309780827756</v>
       </c>
       <c r="C103">
-        <v>14.1858160189835</v>
+        <v>14.18581601888287</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.70634800838706</v>
+        <v>11.70634800846964</v>
       </c>
       <c r="C104">
-        <v>12.27753521598794</v>
+        <v>12.27753521597174</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>14.87525988832895</v>
+        <v>14.87525988830773</v>
       </c>
       <c r="C105">
-        <v>16.25052821859784</v>
+        <v>16.25052821860521</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.25027280329556</v>
+        <v>12.25027280328436</v>
       </c>
       <c r="C106">
-        <v>12.70736200301839</v>
+        <v>12.70736200301748</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.31453061369667</v>
+        <v>13.31453061365315</v>
       </c>
       <c r="C107">
-        <v>14.16082420831872</v>
+        <v>14.16082420828124</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.52168527239073</v>
+        <v>15.52168527225103</v>
       </c>
       <c r="C108">
-        <v>17.19907272219631</v>
+        <v>17.19907272227612</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>17.88275690618161</v>
+        <v>17.88275690605408</v>
       </c>
       <c r="C109">
-        <v>19.92117049802462</v>
+        <v>19.92117049807776</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.11233977954338</v>
+        <v>15.11233977968668</v>
       </c>
       <c r="C110">
-        <v>16.48294443723645</v>
+        <v>16.48294443721323</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>16.90944105497143</v>
+        <v>16.90944105482225</v>
       </c>
       <c r="C111">
-        <v>18.57324022247028</v>
+        <v>18.57324022257337</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.850628515515</v>
+        <v>14.85062851532766</v>
       </c>
       <c r="C112">
-        <v>15.96384118220111</v>
+        <v>15.96384118209387</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.705306831086</v>
+        <v>11.70530683103524</v>
       </c>
       <c r="C113">
-        <v>12.10543434709264</v>
+        <v>12.10543434705332</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.17180885429431</v>
+        <v>11.17180885423574</v>
       </c>
       <c r="C114">
-        <v>11.53723667967138</v>
+        <v>11.53723667956814</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.56512458639752</v>
+        <v>12.5651245862914</v>
       </c>
       <c r="C115">
-        <v>13.11709216334395</v>
+        <v>13.11709216329754</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.04436621030485</v>
+        <v>18.04436621035049</v>
       </c>
       <c r="C116">
-        <v>19.97827446962538</v>
+        <v>19.97827446965806</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.3146677861174</v>
+        <v>15.31466778597648</v>
       </c>
       <c r="C117">
-        <v>16.70211803232667</v>
+        <v>16.70211803242628</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.48362198270628</v>
+        <v>19.48362198262256</v>
       </c>
       <c r="C118">
-        <v>21.8427124222435</v>
+        <v>21.84271242233467</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.7117134397215</v>
+        <v>20.71171343978712</v>
       </c>
       <c r="C119">
-        <v>23.75599017368101</v>
+        <v>23.7559901737196</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.54889247661712</v>
+        <v>20.54889247660457</v>
       </c>
       <c r="C120">
-        <v>23.54863089579437</v>
+        <v>23.54863089567258</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18.56495268829952</v>
+        <v>18.56495268820013</v>
       </c>
       <c r="C121">
-        <v>21.20710545244603</v>
+        <v>21.20710545256776</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.01461657265106</v>
+        <v>18.01461657258833</v>
       </c>
       <c r="C122">
-        <v>20.71575324015621</v>
+        <v>20.71575324033724</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>21.35828302150507</v>
+        <v>21.35828302153818</v>
       </c>
       <c r="C123">
-        <v>25.10815007549121</v>
+        <v>25.108150075394</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13.4668272966597</v>
+        <v>13.46682729652289</v>
       </c>
       <c r="C124">
-        <v>15.79997628059693</v>
+        <v>15.79997628069793</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>16.17007509801241</v>
+        <v>16.17007509817184</v>
       </c>
       <c r="C125">
-        <v>19.41072560656593</v>
+        <v>19.41072560651992</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.837737336877769</v>
+        <v>9.837737336892136</v>
       </c>
       <c r="C126">
-        <v>11.73050137443177</v>
+        <v>11.7305013743989</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.65557345746143</v>
+        <v>15.655573457469</v>
       </c>
       <c r="C127">
-        <v>19.67160469118714</v>
+        <v>19.67160469122878</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>16.23406335507975</v>
+        <v>16.23406335503258</v>
       </c>
       <c r="C128">
-        <v>20.43498299407998</v>
+        <v>20.43498299400812</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.01664532855582</v>
+        <v>19.01664532866677</v>
       </c>
       <c r="C129">
-        <v>24.01434780667449</v>
+        <v>24.01434780660398</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>21.98237012024639</v>
+        <v>21.98237012036422</v>
       </c>
       <c r="C130">
-        <v>27.82525856116879</v>
+        <v>27.82525856107164</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.29974808342515</v>
+        <v>24.29974808338772</v>
       </c>
       <c r="C131">
-        <v>30.57440962241311</v>
+        <v>30.57440962248307</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>35.43538490418084</v>
+        <v>35.43538490394914</v>
       </c>
       <c r="C132">
-        <v>43.5205279779038</v>
+        <v>43.52052797794271</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>35.92608542910708</v>
+        <v>35.92608542913773</v>
       </c>
       <c r="C133">
-        <v>44.09393402063979</v>
+        <v>44.09393402073398</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>49.78305120251656</v>
+        <v>49.7830512025556</v>
       </c>
       <c r="C134">
-        <v>59.82723082535776</v>
+        <v>59.82723082538176</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>59.20905370239343</v>
+        <v>59.20905370231006</v>
       </c>
       <c r="C135">
-        <v>69.78299294735646</v>
+        <v>69.78299294733075</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>63.05468744689057</v>
+        <v>63.05468744707261</v>
       </c>
       <c r="C136">
-        <v>74.22717380784567</v>
+        <v>74.22717380787527</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>66.82763641456512</v>
+        <v>66.82763641466562</v>
       </c>
       <c r="C137">
-        <v>78.29880029255574</v>
+        <v>78.29880029266295</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>81.09963678961883</v>
+        <v>81.09963678967857</v>
       </c>
       <c r="C138">
-        <v>93.14542745166602</v>
+        <v>93.14542745161131</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>86.64989853385295</v>
+        <v>86.64989853400097</v>
       </c>
       <c r="C139">
-        <v>99.26262235064634</v>
+        <v>99.26262235060798</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>91.58881568738765</v>
+        <v>91.58881568739987</v>
       </c>
       <c r="C140">
-        <v>104.8691818703598</v>
+        <v>104.8691818704125</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>93.23534076308981</v>
+        <v>93.2353407630894</v>
       </c>
       <c r="C141">
-        <v>106.5057425784167</v>
+        <v>106.5057425783845</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>95.72184462404036</v>
+        <v>95.72184462418012</v>
       </c>
       <c r="C142">
-        <v>113.1754620245079</v>
+        <v>113.1754620246419</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>96.20777252570262</v>
+        <v>96.20777252561294</v>
       </c>
       <c r="C143">
-        <v>114.1488963401577</v>
+        <v>114.1488963402517</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>94.5482023272383</v>
+        <v>94.54820232741471</v>
       </c>
       <c r="C144">
-        <v>107.0223998165811</v>
+        <v>107.0223998165282</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>96.44455785060258</v>
+        <v>96.44455785054211</v>
       </c>
       <c r="C145">
-        <v>115.1392042327615</v>
+        <v>115.139204232929</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>96.6700508495677</v>
+        <v>96.67005084952002</v>
       </c>
       <c r="C146">
-        <v>109.4227883000342</v>
+        <v>109.4227883000675</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>92.93513654973337</v>
+        <v>92.93513654965373</v>
       </c>
       <c r="C147">
-        <v>105.3813774870862</v>
+        <v>105.3813774871622</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>89.47391165071522</v>
+        <v>89.47391165067826</v>
       </c>
       <c r="C148">
-        <v>101.7217246986977</v>
+        <v>101.7217246987002</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>89.7465364021247</v>
+        <v>89.74653640217505</v>
       </c>
       <c r="C149">
-        <v>101.838668149052</v>
+        <v>101.8386681490742</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>87.5346462870706</v>
+        <v>87.53464628724849</v>
       </c>
       <c r="C150">
-        <v>99.42145949848158</v>
+        <v>99.42145949842394</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>86.9140510271997</v>
+        <v>86.91405102720749</v>
       </c>
       <c r="C151">
-        <v>98.83761618588167</v>
+        <v>98.83761618586546</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>81.26556141631609</v>
+        <v>81.26556141643717</v>
       </c>
       <c r="C152">
-        <v>92.48193496231534</v>
+        <v>92.481934962495</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>73.55356144564757</v>
+        <v>73.55356144577895</v>
       </c>
       <c r="C153">
-        <v>84.00034882544134</v>
+        <v>84.0003488254614</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>75.99469729965264</v>
+        <v>75.99469729962267</v>
       </c>
       <c r="C154">
-        <v>86.51626629990695</v>
+        <v>86.51626629991192</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>77.93648761593074</v>
+        <v>77.93648761576772</v>
       </c>
       <c r="C155">
-        <v>88.54615369282706</v>
+        <v>88.5461536928255</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>63.86257334210327</v>
+        <v>63.86257334212458</v>
       </c>
       <c r="C156">
-        <v>73.04187564627532</v>
+        <v>73.04187564629686</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>68.884848734543</v>
+        <v>68.88484873461249</v>
       </c>
       <c r="C157">
-        <v>78.28279840476685</v>
+        <v>78.28279840456995</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>60.7736455610983</v>
+        <v>60.77364556098522</v>
       </c>
       <c r="C158">
-        <v>69.26218952248233</v>
+        <v>69.2621895225043</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>54.56537244001425</v>
+        <v>54.56537244018033</v>
       </c>
       <c r="C159">
-        <v>62.48542651700147</v>
+        <v>62.48542651699341</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>56.40614406024345</v>
+        <v>56.40614406014627</v>
       </c>
       <c r="C160">
-        <v>64.11192080984036</v>
+        <v>64.11192080986159</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2145,10 +2145,10 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>51.1162369997211</v>
+        <v>51.11623699970711</v>
       </c>
       <c r="C161">
-        <v>58.12345357686279</v>
+        <v>58.12345357688473</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2156,10 +2156,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>51.54702375246087</v>
+        <v>51.54702375242938</v>
       </c>
       <c r="C162">
-        <v>58.62345006032849</v>
+        <v>58.62345006027327</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2167,10 +2167,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>41.03842512543302</v>
+        <v>41.03842512521705</v>
       </c>
       <c r="C163">
-        <v>46.99964287394921</v>
+        <v>46.99964287389854</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2178,10 +2178,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>30.51722457768815</v>
+        <v>30.51722457759464</v>
       </c>
       <c r="C164">
-        <v>35.31845626579881</v>
+        <v>35.31845626575198</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2189,10 +2189,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>24.34843407170467</v>
+        <v>24.34843407149066</v>
       </c>
       <c r="C165">
-        <v>28.29561818375296</v>
+        <v>28.29561818368862</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2200,10 +2200,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.70100896664919</v>
+        <v>13.70100896673607</v>
       </c>
       <c r="C166">
-        <v>16.81112371747631</v>
+        <v>16.81112371750599</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.502647334331115</v>
+        <v>9.502647334354924</v>
       </c>
       <c r="C167">
-        <v>9.502647334331115</v>
+        <v>9.502647334354924</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2222,10 +2222,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>17.16661501832174</v>
+        <v>17.16661501837477</v>
       </c>
       <c r="C168">
-        <v>17.16661501832174</v>
+        <v>17.16661501837477</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2233,10 +2233,10 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>31.93351960209081</v>
+        <v>31.9335196019135</v>
       </c>
       <c r="C169">
-        <v>31.93351960209081</v>
+        <v>31.9335196019135</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2244,10 +2244,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>40.01324320555837</v>
+        <v>40.01324320544003</v>
       </c>
       <c r="C170">
-        <v>40.01324320555837</v>
+        <v>40.01324320544003</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>51.28603556475729</v>
+        <v>51.28603556463798</v>
       </c>
       <c r="C171">
-        <v>52.3916802923632</v>
+        <v>52.3916802923899</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>61.74136546209916</v>
+        <v>61.74136546212045</v>
       </c>
       <c r="C172">
-        <v>63.79444217081641</v>
+        <v>63.79444217085496</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>68.00126901965544</v>
+        <v>68.00126901953945</v>
       </c>
       <c r="C173">
-        <v>70.3464664302136</v>
+        <v>70.34646643026706</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>76.24329274420009</v>
+        <v>76.24329274402601</v>
       </c>
       <c r="C174">
-        <v>80.67797719187739</v>
+        <v>80.677977191881</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2299,10 +2299,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>84.70514911834159</v>
+        <v>84.70514911835717</v>
       </c>
       <c r="C175">
-        <v>90.24859959410855</v>
+        <v>90.2485995940756</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2310,10 +2310,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>86.01846860569572</v>
+        <v>86.01846860566107</v>
       </c>
       <c r="C176">
-        <v>91.51094498310597</v>
+        <v>91.51094498325742</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2321,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>86.92450576733034</v>
+        <v>86.92450576724431</v>
       </c>
       <c r="C177">
-        <v>92.54708389513664</v>
+        <v>92.54708389517721</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2332,10 +2332,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>92.89029147189905</v>
+        <v>92.89029147198734</v>
       </c>
       <c r="C178">
-        <v>100.9058109574178</v>
+        <v>100.9058109574513</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2343,10 +2343,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>81.25362391038327</v>
+        <v>81.2536239104915</v>
       </c>
       <c r="C179">
-        <v>87.9071250400813</v>
+        <v>87.9071250402061</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2354,10 +2354,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>86.33546487765872</v>
+        <v>86.33546487768804</v>
       </c>
       <c r="C180">
-        <v>93.81613340339281</v>
+        <v>93.81613340330762</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2365,10 +2365,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>81.04217083734576</v>
+        <v>81.0421708375186</v>
       </c>
       <c r="C181">
-        <v>87.9463738186025</v>
+        <v>87.94637381874534</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2376,10 +2376,10 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>69.88087853140355</v>
+        <v>69.88087853136527</v>
       </c>
       <c r="C182">
-        <v>75.62008865764246</v>
+        <v>75.62008865774638</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2387,10 +2387,10 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>66.36192855646927</v>
+        <v>66.36192855645008</v>
       </c>
       <c r="C183">
-        <v>71.72084354000886</v>
+        <v>71.7208435399928</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2398,10 +2398,10 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>60.17487073222896</v>
+        <v>60.17487073204616</v>
       </c>
       <c r="C184">
-        <v>64.87138715839778</v>
+        <v>64.87138715827665</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2409,10 +2409,10 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>60.36665816291996</v>
+        <v>60.36665816282066</v>
       </c>
       <c r="C185">
-        <v>65.28225202625528</v>
+        <v>65.28225202610056</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2420,10 +2420,10 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>50.10531470399845</v>
+        <v>50.10531470400624</v>
       </c>
       <c r="C186">
-        <v>53.89749376944741</v>
+        <v>53.89749376946303</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2431,10 +2431,10 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>38.25697471778822</v>
+        <v>38.25697471770363</v>
       </c>
       <c r="C187">
-        <v>40.35186793602853</v>
+        <v>40.35186793609913</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2442,10 +2442,10 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>33.59702378292921</v>
+        <v>33.59702378297288</v>
       </c>
       <c r="C188">
-        <v>35.18520769488482</v>
+        <v>35.18520769496683</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2453,10 +2453,10 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>28.22671186792567</v>
+        <v>28.22671186791258</v>
       </c>
       <c r="C189">
-        <v>29.33554325330558</v>
+        <v>29.33554325326172</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2464,10 +2464,10 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>21.85134705981802</v>
+        <v>21.85134705980231</v>
       </c>
       <c r="C190">
-        <v>22.15368796609186</v>
+        <v>22.15368796628571</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.18767209479982</v>
+        <v>12.18767209475207</v>
       </c>
       <c r="C191">
-        <v>12.18767209479982</v>
+        <v>12.18767209475207</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2486,10 +2486,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8.037308872359088</v>
+        <v>8.037308872321189</v>
       </c>
       <c r="C192">
-        <v>8.037308872359088</v>
+        <v>8.037308872321189</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2497,10 +2497,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.732289038885677</v>
+        <v>8.732289038987886</v>
       </c>
       <c r="C193">
-        <v>8.868248823897366</v>
+        <v>8.868248823723768</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2508,10 +2508,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.45318561240029</v>
+        <v>8.453185612330525</v>
       </c>
       <c r="C194">
-        <v>8.45318561240029</v>
+        <v>8.453185612330525</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2519,10 +2519,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.869345575203127</v>
+        <v>8.869345575211957</v>
       </c>
       <c r="C195">
-        <v>8.896243803451164</v>
+        <v>8.896243803559203</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2530,10 +2530,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8.014430360028257</v>
+        <v>8.014430360110609</v>
       </c>
       <c r="C196">
-        <v>8.014430360028257</v>
+        <v>8.014430360110609</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2541,10 +2541,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.028773658585656</v>
+        <v>9.028773658564937</v>
       </c>
       <c r="C197">
-        <v>9.087722639610861</v>
+        <v>9.087722639570691</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2552,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.61123262428742</v>
+        <v>10.6112326243846</v>
       </c>
       <c r="C198">
-        <v>10.97160220541262</v>
+        <v>10.97160220532867</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2563,10 +2563,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.02805748747411</v>
+        <v>13.02805748761104</v>
       </c>
       <c r="C199">
-        <v>13.80025411112506</v>
+        <v>13.80025411105618</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2574,10 +2574,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.45695028808757</v>
+        <v>10.45695028810252</v>
       </c>
       <c r="C200">
-        <v>10.79632767197295</v>
+        <v>10.79632767195966</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2585,10 +2585,10 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.15824036751652</v>
+        <v>11.15824036763184</v>
       </c>
       <c r="C201">
-        <v>11.49973793830916</v>
+        <v>11.49973793837008</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2596,10 +2596,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.81121799847886</v>
+        <v>11.81121799848414</v>
       </c>
       <c r="C202">
-        <v>12.27960174407775</v>
+        <v>12.2796017440073</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2607,10 +2607,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.943532308262572</v>
+        <v>9.943532308279449</v>
       </c>
       <c r="C203">
-        <v>10.1120578725111</v>
+        <v>10.11205787254122</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2618,10 +2618,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.16959744526618</v>
+        <v>14.16959744515211</v>
       </c>
       <c r="C204">
-        <v>15.32621164191951</v>
+        <v>15.32621164200836</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2629,10 +2629,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>15.84712112956947</v>
+        <v>15.847121129698</v>
       </c>
       <c r="C205">
-        <v>17.47916859887786</v>
+        <v>17.47916859881308</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2640,10 +2640,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.07923554315852</v>
+        <v>18.07923554298222</v>
       </c>
       <c r="C206">
-        <v>20.16519564548726</v>
+        <v>20.16519564539381</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2651,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.63937017399828</v>
+        <v>11.63937017401072</v>
       </c>
       <c r="C207">
-        <v>12.06969051092233</v>
+        <v>12.06969051095819</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2662,10 +2662,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.65294448147345</v>
+        <v>13.65294448137159</v>
       </c>
       <c r="C208">
-        <v>14.65120164383877</v>
+        <v>14.65120164395033</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2673,10 +2673,10 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.39746672250788</v>
+        <v>17.39746672256187</v>
       </c>
       <c r="C209">
-        <v>19.21005521740228</v>
+        <v>19.21005521737974</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2684,10 +2684,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.60893969854194</v>
+        <v>18.60893969860474</v>
       </c>
       <c r="C210">
-        <v>20.75457828826543</v>
+        <v>20.7545782883278</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2695,10 +2695,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.53550313185766</v>
+        <v>14.53550313192544</v>
       </c>
       <c r="C211">
-        <v>15.75108122433637</v>
+        <v>15.75108122431833</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2706,10 +2706,10 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.82849490349317</v>
+        <v>15.82849490341525</v>
       </c>
       <c r="C212">
-        <v>17.49665521359506</v>
+        <v>17.49665521346157</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2717,10 +2717,10 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>24.63598144756438</v>
+        <v>24.63598144762244</v>
       </c>
       <c r="C213">
-        <v>27.98346818362408</v>
+        <v>27.98346818363304</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2728,10 +2728,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>20.51568182501834</v>
+        <v>20.51568182519546</v>
       </c>
       <c r="C214">
-        <v>23.03056019886399</v>
+        <v>23.03056019887709</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2739,10 +2739,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>19.63336402003638</v>
+        <v>19.63336401992734</v>
       </c>
       <c r="C215">
-        <v>22.31852660884713</v>
+        <v>22.31852660894013</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2750,10 +2750,10 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>23.78776699074158</v>
+        <v>23.78776699070533</v>
       </c>
       <c r="C216">
-        <v>27.45942492053732</v>
+        <v>27.45942492062357</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2761,10 +2761,10 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.01817377036619</v>
+        <v>22.0181737703117</v>
       </c>
       <c r="C217">
-        <v>25.57469094618206</v>
+        <v>25.5746909462537</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2772,10 +2772,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>17.01670158077395</v>
+        <v>17.01670158078893</v>
       </c>
       <c r="C218">
-        <v>19.48841270843153</v>
+        <v>19.48841270841802</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2783,10 +2783,10 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.88671865573869</v>
+        <v>14.88671865571672</v>
       </c>
       <c r="C219">
-        <v>17.28550763105341</v>
+        <v>17.28550763113566</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2794,10 +2794,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.8165871707333</v>
+        <v>16.81658717063784</v>
       </c>
       <c r="C220">
-        <v>20.1321543887328</v>
+        <v>20.13215438870193</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2805,10 +2805,10 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.88515579316356</v>
+        <v>12.88515579310453</v>
       </c>
       <c r="C221">
-        <v>15.38050609233558</v>
+        <v>15.38050609237921</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2816,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.61190145102053</v>
+        <v>13.61190145106422</v>
       </c>
       <c r="C222">
-        <v>16.86452157639009</v>
+        <v>16.86452157643186</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2827,10 +2827,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.17270130743471</v>
+        <v>14.17270130739348</v>
       </c>
       <c r="C223">
-        <v>17.80492243104326</v>
+        <v>17.80492243104191</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2838,10 +2838,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.49874360314312</v>
+        <v>14.49874360318452</v>
       </c>
       <c r="C224">
-        <v>18.38595522254291</v>
+        <v>18.3859552226059</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2849,10 +2849,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>19.10421048607498</v>
+        <v>19.10421048616657</v>
       </c>
       <c r="C225">
-        <v>24.35972384550487</v>
+        <v>24.35972384539462</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2860,10 +2860,10 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>22.33667094015161</v>
+        <v>22.33667094041788</v>
       </c>
       <c r="C226">
-        <v>28.1886333879319</v>
+        <v>28.1886333879964</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2871,10 +2871,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>20.50951305217034</v>
+        <v>20.50951305214276</v>
       </c>
       <c r="C227">
-        <v>26.12468457107448</v>
+        <v>26.12468457108219</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2882,10 +2882,10 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>35.64575131542816</v>
+        <v>35.64575131542632</v>
       </c>
       <c r="C228">
-        <v>43.74409232445887</v>
+        <v>43.74409232444776</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2893,10 +2893,10 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>43.71640289717267</v>
+        <v>43.71640289719055</v>
       </c>
       <c r="C229">
-        <v>52.6485086901179</v>
+        <v>52.64850869002754</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2904,10 +2904,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>50.4807621433106</v>
+        <v>50.48076214340903</v>
       </c>
       <c r="C230">
-        <v>60.57156985709056</v>
+        <v>60.57156985707793</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2915,10 +2915,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>54.52314472931852</v>
+        <v>54.52314472940832</v>
       </c>
       <c r="C231">
-        <v>65.36798978486075</v>
+        <v>65.36798978469182</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2926,10 +2926,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>66.11387066004794</v>
+        <v>66.11387066020805</v>
       </c>
       <c r="C232">
-        <v>77.48317314783357</v>
+        <v>77.48317314775012</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2937,10 +2937,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>68.69001655456582</v>
+        <v>68.69001655442239</v>
       </c>
       <c r="C233">
-        <v>80.3375349820864</v>
+        <v>80.33753498203005</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2948,10 +2948,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>79.74416593756266</v>
+        <v>79.74416593769186</v>
       </c>
       <c r="C234">
-        <v>91.51975883126326</v>
+        <v>91.51975883125641</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2959,10 +2959,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>84.45858293387164</v>
+        <v>84.45858293383807</v>
       </c>
       <c r="C235">
-        <v>96.75581028864183</v>
+        <v>96.75581028856479</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2970,10 +2970,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>87.51999861601747</v>
+        <v>87.51999861592151</v>
       </c>
       <c r="C236">
-        <v>100.3307708116633</v>
+        <v>100.3307708117553</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2981,10 +2981,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>95.49292841849845</v>
+        <v>95.49292841846572</v>
       </c>
       <c r="C237">
-        <v>113.3621516169981</v>
+        <v>113.3621516168219</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2992,10 +2992,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>97.73898251064091</v>
+        <v>97.73898251052846</v>
       </c>
       <c r="C238">
-        <v>110.2125120063756</v>
+        <v>110.2125120063992</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3003,10 +3003,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>93.46483117878081</v>
+        <v>93.46483117866356</v>
       </c>
       <c r="C239">
-        <v>105.7361872689873</v>
+        <v>105.736187268942</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3014,10 +3014,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>99.6193167127379</v>
+        <v>99.61931671266633</v>
       </c>
       <c r="C240">
-        <v>112.6436971508708</v>
+        <v>112.6436971510552</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3025,10 +3025,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>96.78606599962157</v>
+        <v>96.78606599957918</v>
       </c>
       <c r="C241">
-        <v>109.5626493385086</v>
+        <v>109.5626493385427</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3036,10 +3036,10 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>96.28779395775075</v>
+        <v>96.28779395773009</v>
       </c>
       <c r="C242">
-        <v>109.0191332339639</v>
+        <v>109.0191332339177</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3047,10 +3047,10 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>92.92912819503678</v>
+        <v>92.92912819496743</v>
       </c>
       <c r="C243">
-        <v>105.3226009730802</v>
+        <v>105.3226009732272</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3058,10 +3058,10 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>91.28687885657266</v>
+        <v>91.28687885637797</v>
       </c>
       <c r="C244">
-        <v>103.7754216515722</v>
+        <v>103.7754216515439</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3069,10 +3069,10 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>84.98161942789505</v>
+        <v>84.98161942795352</v>
       </c>
       <c r="C245">
-        <v>96.74349140657732</v>
+        <v>96.74349140627542</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3080,10 +3080,10 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>90.40006374915957</v>
+        <v>90.40006374906059</v>
       </c>
       <c r="C246">
-        <v>102.7658930626323</v>
+        <v>102.7658930628276</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3091,10 +3091,10 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>84.65202869045652</v>
+        <v>84.6520286905461</v>
       </c>
       <c r="C247">
-        <v>96.44143899544305</v>
+        <v>96.44143899543118</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3102,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>83.4319406067179</v>
+        <v>83.4319406066957</v>
       </c>
       <c r="C248">
-        <v>94.89061877370317</v>
+        <v>94.89061877374512</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3113,10 +3113,10 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>79.99546725022857</v>
+        <v>79.99546725029977</v>
       </c>
       <c r="C249">
-        <v>90.93804698903105</v>
+        <v>90.93804698902552</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3124,10 +3124,10 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>74.03547816538844</v>
+        <v>74.03547816529132</v>
       </c>
       <c r="C250">
-        <v>84.48736473595243</v>
+        <v>84.4873647359404</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3135,10 +3135,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>70.71740560046533</v>
+        <v>70.71740560040371</v>
       </c>
       <c r="C251">
-        <v>80.68079993967176</v>
+        <v>80.68079993973811</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3146,10 +3146,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>69.53568092147138</v>
+        <v>69.53568092174829</v>
       </c>
       <c r="C252">
-        <v>79.35276323512525</v>
+        <v>79.35276323529091</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3157,10 +3157,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>64.46044790938438</v>
+        <v>64.4604479094147</v>
       </c>
       <c r="C253">
-        <v>73.39872216417793</v>
+        <v>73.39872216416043</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3168,10 +3168,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>63.66424769066388</v>
+        <v>63.6642476906565</v>
       </c>
       <c r="C254">
-        <v>72.5828918557682</v>
+        <v>72.58289185571873</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3179,10 +3179,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>58.05351996106815</v>
+        <v>58.05351996100112</v>
       </c>
       <c r="C255">
-        <v>66.13965091684011</v>
+        <v>66.13965091674235</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3190,10 +3190,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>53.71394895423813</v>
+        <v>53.71394895416057</v>
       </c>
       <c r="C256">
-        <v>61.3539636982328</v>
+        <v>61.35396369812923</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3201,10 +3201,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>56.32865641707544</v>
+        <v>56.32865641718405</v>
       </c>
       <c r="C257">
-        <v>63.98170295982902</v>
+        <v>63.98170295981041</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3212,10 +3212,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>49.97244980566682</v>
+        <v>49.97244980558013</v>
       </c>
       <c r="C258">
-        <v>56.76592257387551</v>
+        <v>56.76592257381867</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3223,10 +3223,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>42.40607078100343</v>
+        <v>42.40607078112178</v>
       </c>
       <c r="C259">
-        <v>48.60645062682831</v>
+        <v>48.60645062681685</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3234,10 +3234,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>25.03056963084199</v>
+        <v>25.03056963075172</v>
       </c>
       <c r="C260">
-        <v>29.14392075184421</v>
+        <v>29.14392075172217</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3245,10 +3245,10 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>19.38968922358709</v>
+        <v>19.38968922355679</v>
       </c>
       <c r="C261">
-        <v>23.08874655198142</v>
+        <v>23.08874655204658</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3256,10 +3256,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>9.826102838310103</v>
+        <v>9.826102838340059</v>
       </c>
       <c r="C262">
-        <v>11.85041908425765</v>
+        <v>11.85041908427243</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3267,10 +3267,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7.982258652163601</v>
+        <v>7.982258652171488</v>
       </c>
       <c r="C263">
-        <v>7.982258652163601</v>
+        <v>7.982258652171488</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3278,10 +3278,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>19.38710160047536</v>
+        <v>19.38710160050012</v>
       </c>
       <c r="C264">
-        <v>19.38710160047536</v>
+        <v>19.38710160050012</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3289,10 +3289,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>33.01230262568643</v>
+        <v>33.01230262559147</v>
       </c>
       <c r="C265">
-        <v>33.01230262568643</v>
+        <v>33.01230262559147</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3300,10 +3300,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>37.21305719450802</v>
+        <v>37.21305719438753</v>
       </c>
       <c r="C266">
-        <v>37.21305719450802</v>
+        <v>37.21305719438753</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3311,10 +3311,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>48.55686725452154</v>
+        <v>48.55686725471812</v>
       </c>
       <c r="C267">
-        <v>48.55686725452154</v>
+        <v>48.55686725471812</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3322,10 +3322,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>61.02006777724619</v>
+        <v>61.02006777738258</v>
       </c>
       <c r="C268">
-        <v>62.9189773146587</v>
+        <v>62.91897731454188</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3333,10 +3333,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>64.61432027235992</v>
+        <v>64.61432027241256</v>
       </c>
       <c r="C269">
-        <v>66.78825806834909</v>
+        <v>66.78825806840622</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3344,10 +3344,10 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>79.0259996532513</v>
+        <v>79.02599965304644</v>
       </c>
       <c r="C270">
-        <v>83.94169531189335</v>
+        <v>83.94169531196215</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3355,10 +3355,10 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>85.09924071369956</v>
+        <v>85.09924071371981</v>
       </c>
       <c r="C271">
-        <v>90.62918367690092</v>
+        <v>90.62918367695987</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3366,10 +3366,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>85.29320381882</v>
+        <v>85.29320381882954</v>
       </c>
       <c r="C272">
-        <v>90.6427043851058</v>
+        <v>90.64270438517534</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3377,10 +3377,10 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>85.36160018101943</v>
+        <v>85.36160018104739</v>
       </c>
       <c r="C273">
-        <v>90.74074729931129</v>
+        <v>90.7407472993835</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3388,10 +3388,10 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>86.01827577990588</v>
+        <v>86.01827577992373</v>
       </c>
       <c r="C274">
-        <v>91.58388124479427</v>
+        <v>91.58388124471047</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3399,10 +3399,10 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>80.5544352531338</v>
+        <v>80.55443525320588</v>
       </c>
       <c r="C275">
-        <v>85.66957786955979</v>
+        <v>85.66957786958405</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3410,10 +3410,10 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>76.20389919119316</v>
+        <v>76.20389919112178</v>
       </c>
       <c r="C276">
-        <v>80.96429395125196</v>
+        <v>80.96429395127434</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3421,10 +3421,10 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>79.86159626563843</v>
+        <v>79.86159626566956</v>
       </c>
       <c r="C277">
-        <v>84.98521842333821</v>
+        <v>84.98521842333652</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3432,10 +3432,10 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>67.20802628771921</v>
+        <v>67.2080262875874</v>
       </c>
       <c r="C278">
-        <v>71.20567977067391</v>
+        <v>71.20567977060898</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3443,10 +3443,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>68.78947147146697</v>
+        <v>68.78947147132511</v>
       </c>
       <c r="C279">
-        <v>73.08004575247882</v>
+        <v>73.08004575253106</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3454,10 +3454,10 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>61.39965938213103</v>
+        <v>61.39965938198964</v>
       </c>
       <c r="C280">
-        <v>65.05619128853488</v>
+        <v>65.05619128842531</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3465,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>62.71663126383329</v>
+        <v>62.71663126404445</v>
       </c>
       <c r="C281">
-        <v>66.77204095145515</v>
+        <v>66.77204095138556</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3476,10 +3476,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>54.72480538736599</v>
+        <v>54.72480538736701</v>
       </c>
       <c r="C282">
-        <v>57.95797092053492</v>
+        <v>57.95797092048438</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3487,10 +3487,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>44.42034482440069</v>
+        <v>44.42034482447928</v>
       </c>
       <c r="C283">
-        <v>46.6970977953522</v>
+        <v>46.69709779538928</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3498,10 +3498,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>32.53663346061336</v>
+        <v>32.53663346058823</v>
       </c>
       <c r="C284">
-        <v>33.61742231198733</v>
+        <v>33.61742231202647</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3509,10 +3509,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.08540694249424</v>
+        <v>25.08540694243716</v>
       </c>
       <c r="C285">
-        <v>25.13790736420071</v>
+        <v>25.13790736419176</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3520,10 +3520,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13.8259634419396</v>
+        <v>13.82596344188338</v>
       </c>
       <c r="C286">
-        <v>13.8259634419396</v>
+        <v>13.82596344188338</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3531,10 +3531,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>13.61428157772274</v>
+        <v>13.61428157781699</v>
       </c>
       <c r="C287">
-        <v>13.61428157772274</v>
+        <v>13.61428157781699</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3542,10 +3542,10 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>10.40653674216129</v>
+        <v>10.40653674223783</v>
       </c>
       <c r="C288">
-        <v>10.40653674216129</v>
+        <v>10.40653674223783</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3553,10 +3553,10 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7.73139500537839</v>
+        <v>7.731395005493519</v>
       </c>
       <c r="C289">
-        <v>7.73139500537839</v>
+        <v>7.731395005493519</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3564,10 +3564,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>14.18504901161942</v>
+        <v>14.18504901159879</v>
       </c>
       <c r="C290">
-        <v>15.37996453166341</v>
+        <v>15.37996453169248</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3575,10 +3575,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9.424646123167898</v>
+        <v>9.424646123006491</v>
       </c>
       <c r="C291">
-        <v>9.619233966701664</v>
+        <v>9.619233966801438</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3586,10 +3586,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>14.93428686977966</v>
+        <v>14.93428686966985</v>
       </c>
       <c r="C292">
-        <v>16.31171164706454</v>
+        <v>16.31171164704095</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3597,10 +3597,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8.075269425505068</v>
+        <v>8.075269425443269</v>
       </c>
       <c r="C293">
-        <v>8.075269425505068</v>
+        <v>8.075269425443269</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3608,10 +3608,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>11.2811433333624</v>
+        <v>11.28114333323423</v>
       </c>
       <c r="C294">
-        <v>11.71474006014051</v>
+        <v>11.71474006029761</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3619,10 +3619,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8.447033276837947</v>
+        <v>8.447033276841752</v>
       </c>
       <c r="C295">
-        <v>8.447033276837947</v>
+        <v>8.447033276841752</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3630,10 +3630,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>14.89699674651879</v>
+        <v>14.89699674651968</v>
       </c>
       <c r="C296">
-        <v>16.18636203486234</v>
+        <v>16.18636203477602</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3641,10 +3641,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8.362639728483099</v>
+        <v>8.362639728480486</v>
       </c>
       <c r="C297">
-        <v>8.362639728483099</v>
+        <v>8.362639728480486</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3652,10 +3652,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>14.10148106164451</v>
+        <v>14.10148106168366</v>
       </c>
       <c r="C298">
-        <v>15.23721680044464</v>
+        <v>15.23721680034125</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3663,10 +3663,10 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>14.60125878982638</v>
+        <v>14.60125878971178</v>
       </c>
       <c r="C299">
-        <v>15.91068428704721</v>
+        <v>15.91068428711616</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3674,10 +3674,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>9.417452673633649</v>
+        <v>9.417452673682909</v>
       </c>
       <c r="C300">
-        <v>9.593342802710435</v>
+        <v>9.593342802812719</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3685,10 +3685,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>14.24262203365725</v>
+        <v>14.24262203362337</v>
       </c>
       <c r="C301">
-        <v>15.40346377544448</v>
+        <v>15.40346377531396</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3696,10 +3696,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>15.20023582021146</v>
+        <v>15.20023582025955</v>
       </c>
       <c r="C302">
-        <v>16.66927023484144</v>
+        <v>16.66927023486953</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3707,10 +3707,10 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>13.25142032144872</v>
+        <v>13.25142032143513</v>
       </c>
       <c r="C303">
-        <v>14.07419987392925</v>
+        <v>14.07419987404571</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3718,10 +3718,10 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>11.25134099450758</v>
+        <v>11.25134099462396</v>
       </c>
       <c r="C304">
-        <v>11.6454247659796</v>
+        <v>11.64542476597888</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3729,10 +3729,10 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>15.21777167248204</v>
+        <v>15.21777167246189</v>
       </c>
       <c r="C305">
-        <v>16.46321215085744</v>
+        <v>16.46321215105833</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3740,10 +3740,10 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>16.1430680562572</v>
+        <v>16.14306805614362</v>
       </c>
       <c r="C306">
-        <v>17.57859976635785</v>
+        <v>17.57859976624381</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3751,10 +3751,10 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.01675400430565</v>
+        <v>19.01675400437883</v>
       </c>
       <c r="C307">
-        <v>21.29497169589448</v>
+        <v>21.29497169565829</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3762,10 +3762,10 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>18.0301587092611</v>
+        <v>18.0301587093925</v>
       </c>
       <c r="C308">
-        <v>20.20976679685176</v>
+        <v>20.20976679689938</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3773,10 +3773,10 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>17.11276831940368</v>
+        <v>17.11276831925401</v>
       </c>
       <c r="C309">
-        <v>19.12522034428311</v>
+        <v>19.12522034423902</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3784,10 +3784,10 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>14.65014889924516</v>
+        <v>14.65014889913732</v>
       </c>
       <c r="C310">
-        <v>15.8923595209358</v>
+        <v>15.89235952093031</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3795,10 +3795,10 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>25.24743131217355</v>
+        <v>25.24743131198893</v>
       </c>
       <c r="C311">
-        <v>28.92199174571134</v>
+        <v>28.92199174566451</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3806,10 +3806,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>21.06847868978829</v>
+        <v>21.06847868975771</v>
       </c>
       <c r="C312">
-        <v>24.0931530341833</v>
+        <v>24.09315303406719</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3817,10 +3817,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>19.62944250279774</v>
+        <v>19.62944250279085</v>
       </c>
       <c r="C313">
-        <v>22.61538418433179</v>
+        <v>22.61538418420436</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3828,10 +3828,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>21.24570136788359</v>
+        <v>21.24570136773682</v>
       </c>
       <c r="C314">
-        <v>24.7917482024802</v>
+        <v>24.7917482025363</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3839,10 +3839,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>20.13184645039002</v>
+        <v>20.13184645042844</v>
       </c>
       <c r="C315">
-        <v>23.55546418240696</v>
+        <v>23.55546418236761</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3850,10 +3850,10 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>15.76538144667519</v>
+        <v>15.76538144654394</v>
       </c>
       <c r="C316">
-        <v>18.49527058337774</v>
+        <v>18.49527058354831</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3861,10 +3861,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>13.56628375947209</v>
+        <v>13.56628375951627</v>
       </c>
       <c r="C317">
-        <v>16.31835311661452</v>
+        <v>16.31835311652826</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3872,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>10.25189475581698</v>
+        <v>10.25189475569062</v>
       </c>
       <c r="C318">
-        <v>12.22750551887463</v>
+        <v>12.22750551881325</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3883,10 +3883,10 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>14.48852472924705</v>
+        <v>14.48852472927082</v>
       </c>
       <c r="C319">
-        <v>18.33789299776123</v>
+        <v>18.33789299774234</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3894,10 +3894,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>18.27502173272965</v>
+        <v>18.27502173265676</v>
       </c>
       <c r="C320">
-        <v>22.96966718848671</v>
+        <v>22.96966718839225</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3905,10 +3905,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>19.33215696294425</v>
+        <v>19.33215696308541</v>
       </c>
       <c r="C321">
-        <v>24.58883806503825</v>
+        <v>24.58883806498685</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3916,10 +3916,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>22.00167965578433</v>
+        <v>22.00167965581677</v>
       </c>
       <c r="C322">
-        <v>27.67771516564456</v>
+        <v>27.67771516566961</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3927,10 +3927,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>32.23566235871959</v>
+        <v>32.23566235869108</v>
       </c>
       <c r="C323">
-        <v>39.60400553665833</v>
+        <v>39.60400553681983</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3938,10 +3938,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>29.35273490416743</v>
+        <v>29.35273490409623</v>
       </c>
       <c r="C324">
-        <v>36.32423067739188</v>
+        <v>36.3242306774666</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3949,10 +3949,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>39.98203705055099</v>
+        <v>39.9820370506799</v>
       </c>
       <c r="C325">
-        <v>48.38402710089181</v>
+        <v>48.3840271009548</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3960,10 +3960,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>44.26009299216818</v>
+        <v>44.26009299204747</v>
       </c>
       <c r="C326">
-        <v>53.26291271271021</v>
+        <v>53.26291271282844</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3971,10 +3971,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>59.23008097150972</v>
+        <v>59.23008097156741</v>
       </c>
       <c r="C327">
-        <v>69.74602465003161</v>
+        <v>69.74602464997653</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3982,10 +3982,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>66.54435801555736</v>
+        <v>66.54435801543291</v>
       </c>
       <c r="C328">
-        <v>78.02769753700134</v>
+        <v>78.02769753689147</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3993,10 +3993,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>74.03209591286033</v>
+        <v>74.03209591292863</v>
       </c>
       <c r="C329">
-        <v>86.34569894758526</v>
+        <v>86.34569894752438</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4004,10 +4004,10 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>77.74395211055761</v>
+        <v>77.74395211064149</v>
       </c>
       <c r="C330">
-        <v>89.37772381409796</v>
+        <v>89.37772381408497</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4015,10 +4015,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>84.53343786480222</v>
+        <v>84.53343786489559</v>
       </c>
       <c r="C331">
-        <v>96.93977633969878</v>
+        <v>96.93977633964859</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4026,10 +4026,10 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>94.41482475590703</v>
+        <v>94.4148247557808</v>
       </c>
       <c r="C332">
-        <v>107.9492084911242</v>
+        <v>107.9492084909259</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4037,10 +4037,10 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>90.56640016999175</v>
+        <v>90.56640017002047</v>
       </c>
       <c r="C333">
-        <v>103.6946338015104</v>
+        <v>103.6946338013915</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4048,10 +4048,10 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>95.86020082234518</v>
+        <v>95.86020082229818</v>
       </c>
       <c r="C334">
-        <v>109.5255344106272</v>
+        <v>109.525534410718</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4059,10 +4059,10 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>99.0514033836975</v>
+        <v>99.05140338386946</v>
       </c>
       <c r="C335">
-        <v>117.2322503339112</v>
+        <v>117.2322503338687</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4070,10 +4070,10 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>97.19498906786288</v>
+        <v>97.19498906781581</v>
       </c>
       <c r="C336">
-        <v>109.8710202198982</v>
+        <v>109.8710202200377</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4081,10 +4081,10 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>97.0787731555735</v>
+        <v>97.07877315562978</v>
       </c>
       <c r="C337">
-        <v>115.8831018742502</v>
+        <v>115.883101874327</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4092,10 +4092,10 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>97.70278314028553</v>
+        <v>97.70278314012839</v>
       </c>
       <c r="C338">
-        <v>110.7756443135323</v>
+        <v>110.7756443136196</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4103,10 +4103,10 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>96.15158665245767</v>
+        <v>96.15158665239412</v>
       </c>
       <c r="C339">
-        <v>108.829932982099</v>
+        <v>108.8299329821473</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4114,10 +4114,10 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>97.32756135043159</v>
+        <v>97.32756135045238</v>
       </c>
       <c r="C340">
-        <v>110.227921218406</v>
+        <v>110.2279212186077</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4125,10 +4125,10 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>91.85654434163041</v>
+        <v>91.85654434162964</v>
       </c>
       <c r="C341">
-        <v>104.3268911793829</v>
+        <v>104.3268911795183</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4136,10 +4136,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>85.96701871451646</v>
+        <v>85.96701871454917</v>
       </c>
       <c r="C342">
-        <v>97.85685574026719</v>
+        <v>97.85685574021549</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4147,10 +4147,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>85.22297830672498</v>
+        <v>85.22297830670794</v>
       </c>
       <c r="C343">
-        <v>97.05470186709942</v>
+        <v>97.05470186712813</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4158,10 +4158,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>83.45719033320144</v>
+        <v>83.45719033320474</v>
       </c>
       <c r="C344">
-        <v>95.0351243748684</v>
+        <v>95.03512437471646</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4169,10 +4169,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>81.30077539983287</v>
+        <v>81.30077539989979</v>
       </c>
       <c r="C345">
-        <v>92.38549475957431</v>
+        <v>92.3854947596766</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4180,10 +4180,10 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>72.56912179607367</v>
+        <v>72.56912179616134</v>
       </c>
       <c r="C346">
-        <v>82.7754583165723</v>
+        <v>82.77545831656793</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4191,10 +4191,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>70.19720473624292</v>
+        <v>70.19720473636113</v>
       </c>
       <c r="C347">
-        <v>80.08618860277105</v>
+        <v>80.08618860259725</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4202,10 +4202,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>62.95750496122498</v>
+        <v>62.95750496130308</v>
       </c>
       <c r="C348">
-        <v>72.06133206053467</v>
+        <v>72.06133206052637</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4213,10 +4213,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>58.55147619974014</v>
+        <v>58.55147619973638</v>
       </c>
       <c r="C349">
-        <v>67.13591876486471</v>
+        <v>67.13591876490881</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4224,10 +4224,10 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>62.64456114435709</v>
+        <v>62.64456114449466</v>
       </c>
       <c r="C350">
-        <v>71.37145215378469</v>
+        <v>71.37145215391389</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4235,10 +4235,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>55.1279195127287</v>
+        <v>55.12791951270884</v>
       </c>
       <c r="C351">
-        <v>63.11541293064338</v>
+        <v>63.1154129304696</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4246,10 +4246,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>55.1267649957306</v>
+        <v>55.12676499575249</v>
       </c>
       <c r="C352">
-        <v>62.84003965082765</v>
+        <v>62.84003965077838</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4257,10 +4257,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>52.18581544923558</v>
+        <v>52.18581544925412</v>
       </c>
       <c r="C353">
-        <v>59.52811198307892</v>
+        <v>59.52811198310928</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4268,10 +4268,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>41.35431871026153</v>
+        <v>41.35431871035073</v>
       </c>
       <c r="C354">
-        <v>47.45646673564671</v>
+        <v>47.45646673552181</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4279,10 +4279,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>37.64058139283944</v>
+        <v>37.64058139278421</v>
       </c>
       <c r="C355">
-        <v>43.24779400125473</v>
+        <v>43.24779400127898</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4290,10 +4290,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>26.9307837079706</v>
+        <v>26.93078370811304</v>
       </c>
       <c r="C356">
-        <v>31.23946180349314</v>
+        <v>31.23946180350794</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4301,10 +4301,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>24.24111313601648</v>
+        <v>24.24111313593419</v>
       </c>
       <c r="C357">
-        <v>28.09905960115071</v>
+        <v>28.09905960111835</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4312,10 +4312,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>14.85058224080892</v>
+        <v>14.85058224076559</v>
       </c>
       <c r="C358">
-        <v>18.06642510277381</v>
+        <v>18.06642510273805</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4323,10 +4323,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.290859052819003</v>
+        <v>7.290859052809296</v>
       </c>
       <c r="C359">
-        <v>7.858094179093583</v>
+        <v>7.858094179080682</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4334,10 +4334,10 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>15.90795613745808</v>
+        <v>15.90795613741686</v>
       </c>
       <c r="C360">
-        <v>15.90795613745808</v>
+        <v>15.90795613741686</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4345,10 +4345,10 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>32.99378996971537</v>
+        <v>32.99378996979716</v>
       </c>
       <c r="C361">
-        <v>32.99378996971537</v>
+        <v>32.99378996979716</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4356,10 +4356,10 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>46.79094671509814</v>
+        <v>46.79094671489717</v>
       </c>
       <c r="C362">
-        <v>46.79094671509814</v>
+        <v>46.79094671489717</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4367,10 +4367,10 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>51.20288794477722</v>
+        <v>51.20288794471699</v>
       </c>
       <c r="C363">
-        <v>51.21563393560464</v>
+        <v>51.21563393558522</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4378,10 +4378,10 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>55.10021105248452</v>
+        <v>55.10021105263417</v>
       </c>
       <c r="C364">
-        <v>56.4698447470474</v>
+        <v>56.4698447470388</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4389,10 +4389,10 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>63.59445671041905</v>
+        <v>63.59445671019336</v>
       </c>
       <c r="C365">
-        <v>65.63734377689883</v>
+        <v>65.63734377683761</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4400,10 +4400,10 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>78.63807461916142</v>
+        <v>78.63807461926835</v>
       </c>
       <c r="C366">
-        <v>83.4295991015713</v>
+        <v>83.42959910160539</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4411,10 +4411,10 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>81.42316126486699</v>
+        <v>81.42316126481394</v>
       </c>
       <c r="C367">
-        <v>86.74846873794601</v>
+        <v>86.74846873786576</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4422,10 +4422,10 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>85.65070664345158</v>
+        <v>85.65070664341607</v>
       </c>
       <c r="C368">
-        <v>91.22270140069605</v>
+        <v>91.22270140066723</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4433,10 +4433,10 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>86.09130558428453</v>
+        <v>86.09130558439233</v>
       </c>
       <c r="C369">
-        <v>93.5574484120156</v>
+        <v>93.55744841211978</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4444,10 +4444,10 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>84.01848199936283</v>
+        <v>84.01848199943356</v>
       </c>
       <c r="C370">
-        <v>90.89481849402867</v>
+        <v>90.89481849391244</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4455,10 +4455,10 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>80.84483929583227</v>
+        <v>80.84483929586666</v>
       </c>
       <c r="C371">
-        <v>87.4318084438565</v>
+        <v>87.43180844378821</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4466,10 +4466,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>79.07375696664405</v>
+        <v>79.07375696670601</v>
       </c>
       <c r="C372">
-        <v>85.5694107937757</v>
+        <v>85.56941079376728</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4477,10 +4477,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>80.46772196465808</v>
+        <v>80.46772196458171</v>
       </c>
       <c r="C373">
-        <v>87.23198504442095</v>
+        <v>87.23198504449806</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4488,10 +4488,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>68.35853826580977</v>
+        <v>68.35853826575703</v>
       </c>
       <c r="C374">
-        <v>73.88221161770238</v>
+        <v>73.88221161779349</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4499,10 +4499,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>69.09326077975064</v>
+        <v>69.09326077985362</v>
       </c>
       <c r="C375">
-        <v>74.69890206194005</v>
+        <v>74.69890206208055</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4510,10 +4510,10 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>56.57281310870302</v>
+        <v>56.57281310878859</v>
       </c>
       <c r="C376">
-        <v>60.81120501177226</v>
+        <v>60.81120501168397</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4521,10 +4521,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>64.00555771155422</v>
+        <v>64.00555771132397</v>
       </c>
       <c r="C377">
-        <v>69.40581825981202</v>
+        <v>69.40581825990648</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4532,10 +4532,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>44.28449560235813</v>
+        <v>44.28449560242763</v>
       </c>
       <c r="C378">
-        <v>47.08738753572757</v>
+        <v>47.08738753575623</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4543,10 +4543,10 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>43.81461522380131</v>
+        <v>43.81461522381785</v>
       </c>
       <c r="C379">
-        <v>46.80158107357389</v>
+        <v>46.80158107343417</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4554,10 +4554,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>29.83596944329487</v>
+        <v>29.83596944344</v>
       </c>
       <c r="C380">
-        <v>30.93547759793921</v>
+        <v>30.93547759782099</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4565,10 +4565,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>24.86071982637524</v>
+        <v>24.86071982641043</v>
       </c>
       <c r="C381">
-        <v>25.52588647576796</v>
+        <v>25.52588647573891</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4576,10 +4576,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>21.743754400866</v>
+        <v>21.74375440080488</v>
       </c>
       <c r="C382">
-        <v>21.97464001143136</v>
+        <v>21.97464001141526</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4587,10 +4587,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>15.13957154490628</v>
+        <v>15.13957154487131</v>
       </c>
       <c r="C383">
-        <v>15.13957154490628</v>
+        <v>15.13957154487131</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4598,10 +4598,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7.850171028198062</v>
+        <v>7.850171028236607</v>
       </c>
       <c r="C384">
-        <v>7.850171028198062</v>
+        <v>7.850171028236607</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4609,10 +4609,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>8.53080309959617</v>
+        <v>8.530803099650651</v>
       </c>
       <c r="C385">
-        <v>8.53080309959617</v>
+        <v>8.530803099650651</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4620,10 +4620,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>8.754299282820845</v>
+        <v>8.75429928277509</v>
       </c>
       <c r="C386">
-        <v>8.788509642604559</v>
+        <v>8.788509642596413</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4631,10 +4631,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>13.05867595339835</v>
+        <v>13.0586759535309</v>
       </c>
       <c r="C387">
-        <v>13.94286965658057</v>
+        <v>13.94286965663838</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4642,10 +4642,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>12.66004856647939</v>
+        <v>12.66004856659039</v>
       </c>
       <c r="C388">
-        <v>13.42551350651475</v>
+        <v>13.42551350664022</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4653,10 +4653,10 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>12.78562286851664</v>
+        <v>12.78562286859952</v>
       </c>
       <c r="C389">
-        <v>13.67676086375527</v>
+        <v>13.6767608637494</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4664,10 +4664,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>13.81014422598436</v>
+        <v>13.8101442258482</v>
       </c>
       <c r="C390">
-        <v>14.88509430453472</v>
+        <v>14.88509430456697</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4675,10 +4675,10 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>11.19201844899932</v>
+        <v>11.19201844916213</v>
       </c>
       <c r="C391">
-        <v>11.72004487593006</v>
+        <v>11.72004487595819</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4686,10 +4686,10 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>11.50091230933955</v>
+        <v>11.50091230936062</v>
       </c>
       <c r="C392">
-        <v>12.00713906427331</v>
+        <v>12.00713906431331</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4697,10 +4697,10 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>14.8250045415869</v>
+        <v>14.82500454168385</v>
       </c>
       <c r="C393">
-        <v>16.20802074784723</v>
+        <v>16.20802074773534</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4708,10 +4708,10 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>17.50349966495321</v>
+        <v>17.5034996648733</v>
       </c>
       <c r="C394">
-        <v>19.44822788738663</v>
+        <v>19.44822788729336</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4719,10 +4719,10 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>17.47205384390035</v>
+        <v>17.47205384384117</v>
       </c>
       <c r="C395">
-        <v>19.40100497924579</v>
+        <v>19.40100497930307</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4730,10 +4730,10 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>11.95733975805723</v>
+        <v>11.95733975794889</v>
       </c>
       <c r="C396">
-        <v>12.42645593743147</v>
+        <v>12.42645593740883</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4741,10 +4741,10 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11.43252377392771</v>
+        <v>11.43252377403385</v>
       </c>
       <c r="C397">
-        <v>11.86813155684849</v>
+        <v>11.86813155678656</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4752,10 +4752,10 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>12.91526204274559</v>
+        <v>12.91526204280182</v>
       </c>
       <c r="C398">
-        <v>13.57669498758635</v>
+        <v>13.57669498769131</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4763,10 +4763,10 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>14.95813843920033</v>
+        <v>14.9581384392302</v>
       </c>
       <c r="C399">
-        <v>16.10881691041691</v>
+        <v>16.10881691029405</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4774,10 +4774,10 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>15.35861734387684</v>
+        <v>15.3586173438477</v>
       </c>
       <c r="C400">
-        <v>16.76630701854791</v>
+        <v>16.7663070185889</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4785,10 +4785,10 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>17.86812994880194</v>
+        <v>17.86812994881863</v>
       </c>
       <c r="C401">
-        <v>19.85800447220694</v>
+        <v>19.85800447227549</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4796,10 +4796,10 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>13.82392026273533</v>
+        <v>13.82392026282154</v>
       </c>
       <c r="C402">
-        <v>14.87193838830543</v>
+        <v>14.87193838839505</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4807,10 +4807,10 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>17.40782270745728</v>
+        <v>17.4078227074173</v>
       </c>
       <c r="C403">
-        <v>19.29147549960347</v>
+        <v>19.2914754997392</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4818,10 +4818,10 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>22.42906825291551</v>
+        <v>22.42906825307183</v>
       </c>
       <c r="C404">
-        <v>25.31421936582104</v>
+        <v>25.31421936578874</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4829,10 +4829,10 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>17.1312348342845</v>
+        <v>17.13123483429526</v>
       </c>
       <c r="C405">
-        <v>18.98477313639595</v>
+        <v>18.98477313639803</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4840,10 +4840,10 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>13.7704682393229</v>
+        <v>13.77046823924997</v>
       </c>
       <c r="C406">
-        <v>14.78502582715224</v>
+        <v>14.78502582691408</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4851,10 +4851,10 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>21.0452920395058</v>
+        <v>21.04529203945769</v>
       </c>
       <c r="C407">
-        <v>24.1124418393176</v>
+        <v>24.1124418391801</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4862,10 +4862,10 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>20.23891573056335</v>
+        <v>20.23891573052907</v>
       </c>
       <c r="C408">
-        <v>23.19508620463796</v>
+        <v>23.19508620464627</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4873,10 +4873,10 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>14.18897207222873</v>
+        <v>14.18897207226596</v>
       </c>
       <c r="C409">
-        <v>15.89420781454721</v>
+        <v>15.89420781443742</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4884,10 +4884,10 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>24.70752580285575</v>
+        <v>24.70752580273139</v>
       </c>
       <c r="C410">
-        <v>28.91350933734333</v>
+        <v>28.91350933743996</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4895,10 +4895,10 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>19.63804256514888</v>
+        <v>19.6380425650605</v>
       </c>
       <c r="C411">
-        <v>22.9590692965011</v>
+        <v>22.9590692963979</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4906,10 +4906,10 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>16.83399057248734</v>
+        <v>16.83399057254284</v>
       </c>
       <c r="C412">
-        <v>20.17935260655116</v>
+        <v>20.17935260654427</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4917,10 +4917,10 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>16.68654810554611</v>
+        <v>16.68654810537353</v>
       </c>
       <c r="C413">
-        <v>20.31396229112318</v>
+        <v>20.31396229107918</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4928,10 +4928,10 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>10.34899300186942</v>
+        <v>10.34899300178896</v>
       </c>
       <c r="C414">
-        <v>12.43817518213835</v>
+        <v>12.43817518218736</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4939,10 +4939,10 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>17.14601440312299</v>
+        <v>17.14601440335673</v>
       </c>
       <c r="C415">
-        <v>21.45552165228162</v>
+        <v>21.45552165231729</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4950,10 +4950,10 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>15.51643397764273</v>
+        <v>15.51643397771259</v>
       </c>
       <c r="C416">
-        <v>19.65683554726405</v>
+        <v>19.65683554721946</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4961,10 +4961,10 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>16.68114812807798</v>
+        <v>16.68114812814272</v>
       </c>
       <c r="C417">
-        <v>21.42612089625019</v>
+        <v>21.42612089629835</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4972,10 +4972,10 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>20.1148095401186</v>
+        <v>20.11480953986444</v>
       </c>
       <c r="C418">
-        <v>25.42614005449199</v>
+        <v>25.42614005462406</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4983,10 +4983,10 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>21.0980112569278</v>
+        <v>21.09801125675363</v>
       </c>
       <c r="C419">
-        <v>26.83804363648631</v>
+        <v>26.83804363652557</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4994,10 +4994,10 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>29.93475029921074</v>
+        <v>29.9347502990024</v>
       </c>
       <c r="C420">
-        <v>36.97845181442222</v>
+        <v>36.97845181438682</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5005,10 +5005,10 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>35.69937158782985</v>
+        <v>35.69937158794726</v>
       </c>
       <c r="C421">
-        <v>43.87759747070368</v>
+        <v>43.87759747073534</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5016,10 +5016,10 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>49.47073325058241</v>
+        <v>49.47073325063361</v>
       </c>
       <c r="C422">
-        <v>59.377242540886</v>
+        <v>59.37724254095622</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5027,10 +5027,10 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>56.09814287448868</v>
+        <v>56.09814287447629</v>
       </c>
       <c r="C423">
-        <v>67.09858637316324</v>
+        <v>67.09858637303974</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5038,10 +5038,10 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>61.80712942885116</v>
+        <v>61.80712942882403</v>
       </c>
       <c r="C424">
-        <v>72.51819928760939</v>
+        <v>72.51819928761415</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5049,10 +5049,10 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>67.45477199394536</v>
+        <v>67.45477199392026</v>
       </c>
       <c r="C425">
-        <v>79.03637869350659</v>
+        <v>79.03637869359635</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5060,10 +5060,10 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>78.22232410816324</v>
+        <v>78.2223241082565</v>
       </c>
       <c r="C426">
-        <v>90.02671419658516</v>
+        <v>90.02671419657175</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5071,10 +5071,10 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>82.61666837100394</v>
+        <v>82.61666837099267</v>
       </c>
       <c r="C427">
-        <v>94.91473727310247</v>
+        <v>94.91473727310252</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5082,10 +5082,10 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>89.77041883100576</v>
+        <v>89.77041883098414</v>
       </c>
       <c r="C428">
-        <v>102.8327316817391</v>
+        <v>102.8327316817609</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5093,10 +5093,10 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>91.75554792438244</v>
+        <v>91.75554792425714</v>
       </c>
       <c r="C429">
-        <v>104.9838536849288</v>
+        <v>104.9838536848964</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5104,10 +5104,10 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>96.37548845671253</v>
+        <v>96.3754884566208</v>
       </c>
       <c r="C430">
-        <v>113.8309402424339</v>
+        <v>113.8309402422983</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5115,10 +5115,10 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>99.73831390438592</v>
+        <v>99.73831390456938</v>
       </c>
       <c r="C431">
-        <v>112.6833000367349</v>
+        <v>112.6833000366269</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5126,10 +5126,10 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>98.57489926933953</v>
+        <v>98.57489926929247</v>
       </c>
       <c r="C432">
-        <v>111.2781165641952</v>
+        <v>111.2781165641799</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5137,10 +5137,10 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>97.59653936703342</v>
+        <v>97.59653936677009</v>
       </c>
       <c r="C433">
-        <v>110.2796229335525</v>
+        <v>110.279622933471</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5148,10 +5148,10 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>96.82391117300354</v>
+        <v>96.82391117297831</v>
       </c>
       <c r="C434">
-        <v>115.8690352553605</v>
+        <v>115.8690352553035</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5159,10 +5159,10 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>95.06568891658368</v>
+        <v>95.06568891662563</v>
       </c>
       <c r="C435">
-        <v>107.848678379624</v>
+        <v>107.8486783796764</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5170,10 +5170,10 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>87.30486591870634</v>
+        <v>87.30486591859399</v>
       </c>
       <c r="C436">
-        <v>99.25831779854269</v>
+        <v>99.25831779852562</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5181,10 +5181,10 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>87.60564709867035</v>
+        <v>87.60564709866723</v>
       </c>
       <c r="C437">
-        <v>99.74738332636318</v>
+        <v>99.74738332650345</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5192,10 +5192,10 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>88.97957958958344</v>
+        <v>88.97957958970736</v>
       </c>
       <c r="C438">
-        <v>101.1428848608352</v>
+        <v>101.1428848608328</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5203,10 +5203,10 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>84.26828291033273</v>
+        <v>84.26828291047241</v>
       </c>
       <c r="C439">
-        <v>96.08201998818369</v>
+        <v>96.08201998824066</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5214,10 +5214,10 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>79.42755873322473</v>
+        <v>79.42755873325527</v>
       </c>
       <c r="C440">
-        <v>90.51874185168469</v>
+        <v>90.51874185159565</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5225,10 +5225,10 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>79.72816012495869</v>
+        <v>79.72816012486076</v>
       </c>
       <c r="C441">
-        <v>90.89442990759069</v>
+        <v>90.89442990769705</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5236,10 +5236,10 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>75.34588998488816</v>
+        <v>75.34588998481235</v>
       </c>
       <c r="C442">
-        <v>85.92566049408218</v>
+        <v>85.92566049425383</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5247,10 +5247,10 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>69.52427008433199</v>
+        <v>69.52427008420459</v>
       </c>
       <c r="C443">
-        <v>79.39214077194585</v>
+        <v>79.39214077205325</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5258,10 +5258,10 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>67.30803667860211</v>
+        <v>67.30803667867346</v>
       </c>
       <c r="C444">
-        <v>76.77230369065111</v>
+        <v>76.77230369072949</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5269,10 +5269,10 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>65.4013062013281</v>
+        <v>65.40130620123198</v>
       </c>
       <c r="C445">
-        <v>74.49130379414466</v>
+        <v>74.4913037942348</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5280,10 +5280,10 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>66.85844580978717</v>
+        <v>66.85844580984909</v>
       </c>
       <c r="C446">
-        <v>75.95740258622777</v>
+        <v>75.95740258613004</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5291,10 +5291,10 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>58.46936747386924</v>
+        <v>58.46936747396398</v>
       </c>
       <c r="C447">
-        <v>66.59243060635076</v>
+        <v>66.59243060628035</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5302,10 +5302,10 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>51.64932097493037</v>
+        <v>51.64932097512395</v>
       </c>
       <c r="C448">
-        <v>59.12936677334496</v>
+        <v>59.12936677325057</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5313,10 +5313,10 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>48.72225569137137</v>
+        <v>48.72225569127021</v>
       </c>
       <c r="C449">
-        <v>55.61793478989203</v>
+        <v>55.61793478985025</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5324,10 +5324,10 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>48.63949752152815</v>
+        <v>48.63949752150648</v>
       </c>
       <c r="C450">
-        <v>55.4477252394187</v>
+        <v>55.44772523942284</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5335,10 +5335,10 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>44.14388145954133</v>
+        <v>44.1438814593746</v>
       </c>
       <c r="C451">
-        <v>50.49969223260376</v>
+        <v>50.49969223260228</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5346,10 +5346,10 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>23.53445344285106</v>
+        <v>23.5344534428815</v>
       </c>
       <c r="C452">
-        <v>27.51943744646923</v>
+        <v>27.51943744656159</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5357,10 +5357,10 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>22.80004142065731</v>
+        <v>22.80004142049039</v>
       </c>
       <c r="C453">
-        <v>26.79807073304798</v>
+        <v>26.79807073302333</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5368,10 +5368,10 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>12.37433792795193</v>
+        <v>12.37433792798256</v>
       </c>
       <c r="C454">
-        <v>15.10122548887642</v>
+        <v>15.10122548884728</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5379,10 +5379,10 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.736265526633614</v>
+        <v>8.736265526639547</v>
       </c>
       <c r="C455">
-        <v>8.736265526633614</v>
+        <v>8.736265526639547</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5390,10 +5390,10 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>15.59441606165396</v>
+        <v>15.59441606166281</v>
       </c>
       <c r="C456">
-        <v>15.59441606165396</v>
+        <v>15.59441606166281</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5401,10 +5401,10 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>30.83704854488521</v>
+        <v>30.83704854487288</v>
       </c>
       <c r="C457">
-        <v>30.83704854488521</v>
+        <v>30.83704854487288</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5412,10 +5412,10 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>38.7527891909695</v>
+        <v>38.75278919086649</v>
       </c>
       <c r="C458">
-        <v>38.7527891909695</v>
+        <v>38.75278919086649</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5423,10 +5423,10 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>49.07814212175185</v>
+        <v>49.0781421215251</v>
       </c>
       <c r="C459">
-        <v>49.07814212175185</v>
+        <v>49.0781421215251</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5434,10 +5434,10 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>57.10690147178954</v>
+        <v>57.10690147182667</v>
       </c>
       <c r="C460">
-        <v>58.57949733997276</v>
+        <v>58.57949733998657</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5445,10 +5445,10 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>66.00606960949548</v>
+        <v>66.00606960932153</v>
       </c>
       <c r="C461">
-        <v>68.4480991018726</v>
+        <v>68.44809910194034</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5456,10 +5456,10 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>75.86753985417593</v>
+        <v>75.86753985414076</v>
       </c>
       <c r="C462">
-        <v>80.53089330798127</v>
+        <v>80.53089330802624</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5467,10 +5467,10 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>75.46608277464529</v>
+        <v>75.46608277467132</v>
       </c>
       <c r="C463">
-        <v>79.87387634063334</v>
+        <v>79.87387634061712</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5478,10 +5478,10 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>81.92810368846585</v>
+        <v>81.9281036885166</v>
       </c>
       <c r="C464">
-        <v>86.98856164389223</v>
+        <v>86.98856164392751</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5489,10 +5489,10 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>81.84854916136828</v>
+        <v>81.84854916140027</v>
       </c>
       <c r="C465">
-        <v>87.02610886240703</v>
+        <v>87.02610886234162</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5500,10 +5500,10 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>87.80876016108837</v>
+        <v>87.80876016105316</v>
       </c>
       <c r="C466">
-        <v>95.11500749753449</v>
+        <v>95.11500749761397</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5511,10 +5511,10 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>85.50154202507659</v>
+        <v>85.50154202505695</v>
       </c>
       <c r="C467">
-        <v>92.6824982558155</v>
+        <v>92.68249825569163</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5522,10 +5522,10 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>81.26865074838308</v>
+        <v>81.26865074835874</v>
       </c>
       <c r="C468">
-        <v>87.93075960472089</v>
+        <v>87.93075960483186</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5533,10 +5533,10 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>77.71606276183142</v>
+        <v>77.71606276173704</v>
       </c>
       <c r="C469">
-        <v>84.19446107560724</v>
+        <v>84.19446107562858</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5544,10 +5544,10 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>71.33707692861732</v>
+        <v>71.33707692859723</v>
       </c>
       <c r="C470">
-        <v>77.12125854307472</v>
+        <v>77.12125854320142</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5555,10 +5555,10 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>67.60030533445413</v>
+        <v>67.60030533442693</v>
       </c>
       <c r="C471">
-        <v>72.93449047750251</v>
+        <v>72.93449047762199</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5566,10 +5566,10 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>62.28795991671016</v>
+        <v>62.28795991667786</v>
       </c>
       <c r="C472">
-        <v>67.3258483367466</v>
+        <v>67.32584833673184</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5577,10 +5577,10 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>50.19062964200201</v>
+        <v>50.1906296420919</v>
       </c>
       <c r="C473">
-        <v>53.64765487839058</v>
+        <v>53.64765487843619</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5588,10 +5588,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>50.09121281669891</v>
+        <v>50.09121281683444</v>
       </c>
       <c r="C474">
-        <v>53.53826675300165</v>
+        <v>53.53826675296253</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5599,10 +5599,10 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>43.56172464259107</v>
+        <v>43.56172464266896</v>
       </c>
       <c r="C475">
-        <v>46.56359664411314</v>
+        <v>46.56359664412742</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5610,10 +5610,10 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>29.96362488660778</v>
+        <v>29.9636248865462</v>
       </c>
       <c r="C476">
-        <v>31.08896093953042</v>
+        <v>31.08896093950753</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5621,10 +5621,10 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>26.55839958029723</v>
+        <v>26.55839958031498</v>
       </c>
       <c r="C477">
-        <v>27.40856006786681</v>
+        <v>27.40856006776884</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5632,10 +5632,10 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>17.53899616046614</v>
+        <v>17.53899616050294</v>
       </c>
       <c r="C478">
-        <v>17.53899616046614</v>
+        <v>17.53899616050294</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5643,10 +5643,10 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10.87989703341565</v>
+        <v>10.87989703351422</v>
       </c>
       <c r="C479">
-        <v>10.87989703341565</v>
+        <v>10.87989703351422</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5654,10 +5654,10 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>9.376762272918416</v>
+        <v>9.376762272918446</v>
       </c>
       <c r="C480">
-        <v>9.376762272918416</v>
+        <v>9.376762272918446</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5665,10 +5665,10 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7.878327624853609</v>
+        <v>7.878327624825389</v>
       </c>
       <c r="C481">
-        <v>7.878327624853609</v>
+        <v>7.878327624825389</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5676,10 +5676,10 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>13.16097323998805</v>
+        <v>13.16097323984409</v>
       </c>
       <c r="C482">
-        <v>14.16791227200212</v>
+        <v>14.16791227209744</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5687,10 +5687,10 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>12.15292631964999</v>
+        <v>12.1529263197562</v>
       </c>
       <c r="C483">
-        <v>12.89864781930008</v>
+        <v>12.89864781938824</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5698,10 +5698,10 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>13.09775589191654</v>
+        <v>13.09775589198559</v>
       </c>
       <c r="C484">
-        <v>13.91804365869222</v>
+        <v>13.91804365854315</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>14.57395527271353</v>
+        <v>14.57395527271706</v>
       </c>
       <c r="C485">
-        <v>15.96015326810217</v>
+        <v>15.96015326798018</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5720,10 +5720,10 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>12.97444355990543</v>
+        <v>12.97444355968265</v>
       </c>
       <c r="C486">
-        <v>13.93429407746313</v>
+        <v>13.93429407741933</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5731,10 +5731,10 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>10.9770221474197</v>
+        <v>10.97702214726281</v>
       </c>
       <c r="C487">
-        <v>11.31216577659284</v>
+        <v>11.31216577649003</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5742,10 +5742,10 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>10.3977293552299</v>
+        <v>10.39772935519814</v>
       </c>
       <c r="C488">
-        <v>10.66586538502515</v>
+        <v>10.66586538505857</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5753,10 +5753,10 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>13.05896619457031</v>
+        <v>13.05896619464427</v>
       </c>
       <c r="C489">
-        <v>13.96124005194794</v>
+        <v>13.96124005196051</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5764,10 +5764,10 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>10.54202597862358</v>
+        <v>10.5420259785709</v>
       </c>
       <c r="C490">
-        <v>10.87607571200017</v>
+        <v>10.8760757120331</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5775,10 +5775,10 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>14.5137864800623</v>
+        <v>14.51378647996369</v>
       </c>
       <c r="C491">
-        <v>15.74301192849573</v>
+        <v>15.74301192841075</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5786,10 +5786,10 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10.28115147677099</v>
+        <v>10.28115147664895</v>
       </c>
       <c r="C492">
-        <v>10.56420965855245</v>
+        <v>10.56420965854245</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5797,10 +5797,10 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>10.33330240014354</v>
+        <v>10.33330240026458</v>
       </c>
       <c r="C493">
-        <v>10.67790848129842</v>
+        <v>10.67790848133549</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5808,10 +5808,10 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>12.37393755206047</v>
+        <v>12.37393755207618</v>
       </c>
       <c r="C494">
-        <v>12.79657994575494</v>
+        <v>12.79657994584038</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5819,10 +5819,10 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>13.22164421404224</v>
+        <v>13.2216442142067</v>
       </c>
       <c r="C495">
-        <v>13.94621532165804</v>
+        <v>13.94621532165302</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5830,10 +5830,10 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>17.04889608992072</v>
+        <v>17.04889608995573</v>
       </c>
       <c r="C496">
-        <v>19.08980296012546</v>
+        <v>19.08980296017934</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5841,10 +5841,10 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>10.8736115836753</v>
+        <v>10.87361158359716</v>
       </c>
       <c r="C497">
-        <v>11.19553497942223</v>
+        <v>11.19553497936146</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5852,10 +5852,10 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>12.90536497311443</v>
+        <v>12.90536497309082</v>
       </c>
       <c r="C498">
-        <v>13.58484963340257</v>
+        <v>13.58484963326273</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5863,10 +5863,10 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>15.33065366376075</v>
+        <v>15.33065366370922</v>
       </c>
       <c r="C499">
-        <v>16.8456305333234</v>
+        <v>16.84563053328814</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5874,10 +5874,10 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>12.80191583938519</v>
+        <v>12.80191583942394</v>
       </c>
       <c r="C500">
-        <v>13.49864125611713</v>
+        <v>13.49864125605162</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5885,10 +5885,10 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>17.06680119397452</v>
+        <v>17.06680119391014</v>
       </c>
       <c r="C501">
-        <v>19.2933528724426</v>
+        <v>19.29335287267157</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5896,10 +5896,10 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>16.97147186479686</v>
+        <v>16.97147186478203</v>
       </c>
       <c r="C502">
-        <v>18.99917531861435</v>
+        <v>18.99917531862085</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5907,10 +5907,10 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.26266443705221</v>
+        <v>21.26266443715497</v>
       </c>
       <c r="C503">
-        <v>24.21680105469517</v>
+        <v>24.21680105457907</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5918,10 +5918,10 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>18.54839315488465</v>
+        <v>18.5483931549955</v>
       </c>
       <c r="C504">
-        <v>21.14627639685193</v>
+        <v>21.14627639683349</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5929,10 +5929,10 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>27.5037364500161</v>
+        <v>27.50373645019918</v>
       </c>
       <c r="C505">
-        <v>31.95224984410012</v>
+        <v>31.95224984405296</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5940,10 +5940,10 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>23.02363272793734</v>
+        <v>23.02363272787692</v>
       </c>
       <c r="C506">
-        <v>26.63803414717588</v>
+        <v>26.63803414717388</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5951,10 +5951,10 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>23.01288573133816</v>
+        <v>23.01288573131641</v>
       </c>
       <c r="C507">
-        <v>26.81468113736922</v>
+        <v>26.81468113746737</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5962,10 +5962,10 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>23.00163755902602</v>
+        <v>23.00163755905523</v>
       </c>
       <c r="C508">
-        <v>27.14845321411902</v>
+        <v>27.14845321416672</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5973,10 +5973,10 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>19.48377874163829</v>
+        <v>19.48377874167311</v>
       </c>
       <c r="C509">
-        <v>22.99182594130947</v>
+        <v>22.99182594122491</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5984,10 +5984,10 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>27.39137275854017</v>
+        <v>27.39137275847883</v>
       </c>
       <c r="C510">
-        <v>32.82435542022336</v>
+        <v>32.82435542027118</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5995,10 +5995,10 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>31.38947731537599</v>
+        <v>31.38947731541379</v>
       </c>
       <c r="C511">
-        <v>37.7152818693397</v>
+        <v>37.71528186942293</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6006,10 +6006,10 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>25.24169501006959</v>
+        <v>25.24169501002116</v>
       </c>
       <c r="C512">
-        <v>30.50455261708101</v>
+        <v>30.50455261711306</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6017,10 +6017,10 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>33.17756812763647</v>
+        <v>33.17756812753265</v>
       </c>
       <c r="C513">
-        <v>40.17923133658089</v>
+        <v>40.17923133649226</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6028,10 +6028,10 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>35.7342993631859</v>
+        <v>35.73429936318441</v>
       </c>
       <c r="C514">
-        <v>43.46843237641509</v>
+        <v>43.46843237642896</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6039,10 +6039,10 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>39.60934973898575</v>
+        <v>39.60934973891968</v>
       </c>
       <c r="C515">
-        <v>47.50351220200953</v>
+        <v>47.50351220195604</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6050,10 +6050,10 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>34.44493349824933</v>
+        <v>34.44493349816857</v>
       </c>
       <c r="C516">
-        <v>41.68615105508272</v>
+        <v>41.68615105505653</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6061,10 +6061,10 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>48.07260351537874</v>
+        <v>48.0726035153407</v>
       </c>
       <c r="C517">
-        <v>57.66203917293771</v>
+        <v>57.66203917296243</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6072,10 +6072,10 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>47.2433906955613</v>
+        <v>47.24339069546108</v>
       </c>
       <c r="C518">
-        <v>56.82845523779436</v>
+        <v>56.82845523775404</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6083,10 +6083,10 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>45.75471849360657</v>
+        <v>45.7547184936702</v>
       </c>
       <c r="C519">
-        <v>55.17158557223878</v>
+        <v>55.1715855723118</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6094,10 +6094,10 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>53.82031112707298</v>
+        <v>53.8203111271436</v>
       </c>
       <c r="C520">
-        <v>64.77630957110667</v>
+        <v>64.7763095711345</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6105,10 +6105,10 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>56.24551061086876</v>
+        <v>56.24551061089689</v>
       </c>
       <c r="C521">
-        <v>67.73330652451804</v>
+        <v>67.73330652457838</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6116,10 +6116,10 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>56.35882236012731</v>
+        <v>56.35882236013078</v>
       </c>
       <c r="C522">
-        <v>67.93822997308212</v>
+        <v>67.93822997316697</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6127,10 +6127,10 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>55.35502443092257</v>
+        <v>55.35502443084788</v>
       </c>
       <c r="C523">
-        <v>66.93933857214611</v>
+        <v>66.93933857228433</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6138,10 +6138,10 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>55.92220959926566</v>
+        <v>55.92220959916152</v>
       </c>
       <c r="C524">
-        <v>67.72490939053219</v>
+        <v>67.72490939047336</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6149,10 +6149,10 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>59.55532829924199</v>
+        <v>59.55532829930183</v>
       </c>
       <c r="C525">
-        <v>70.99267125567059</v>
+        <v>70.99267125567231</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6160,10 +6160,10 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>63.70283677111112</v>
+        <v>63.70283677102721</v>
       </c>
       <c r="C526">
-        <v>75.96157182870805</v>
+        <v>75.96157182856952</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6171,10 +6171,10 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>60.5826432035913</v>
+        <v>60.58264320361869</v>
       </c>
       <c r="C527">
-        <v>72.34021548095461</v>
+        <v>72.3402154809154</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6182,10 +6182,10 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>65.85363073149732</v>
+        <v>65.85363073168602</v>
       </c>
       <c r="C528">
-        <v>78.56809566942675</v>
+        <v>78.56809566944996</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6193,10 +6193,10 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>65.4349262749945</v>
+        <v>65.43492627502228</v>
       </c>
       <c r="C529">
-        <v>78.05317525128476</v>
+        <v>78.05317525135504</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6204,10 +6204,10 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>65.72412581886461</v>
+        <v>65.72412581910882</v>
       </c>
       <c r="C530">
-        <v>78.38063833883243</v>
+        <v>78.38063833860464</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6215,10 +6215,10 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>69.43917750260734</v>
+        <v>69.43917750236648</v>
       </c>
       <c r="C531">
-        <v>82.68256059883295</v>
+        <v>82.68256059902768</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6226,10 +6226,10 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>63.27503581734762</v>
+        <v>63.2750358174223</v>
       </c>
       <c r="C532">
-        <v>75.48296459873791</v>
+        <v>75.48296459876995</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6237,10 +6237,10 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>67.27195947116449</v>
+        <v>67.27195947132853</v>
       </c>
       <c r="C533">
-        <v>80.14793349799815</v>
+        <v>80.1479334979845</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6248,10 +6248,10 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>60.96595438271169</v>
+        <v>60.96595438253271</v>
       </c>
       <c r="C534">
-        <v>72.77042421317579</v>
+        <v>72.77042421318777</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6259,10 +6259,10 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>61.97929765940307</v>
+        <v>61.97929765934526</v>
       </c>
       <c r="C535">
-        <v>73.95832913301152</v>
+        <v>73.95832913287708</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6270,10 +6270,10 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>57.50624729828757</v>
+        <v>57.5062472982067</v>
       </c>
       <c r="C536">
-        <v>68.64337021031204</v>
+        <v>68.64337021026058</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6281,10 +6281,10 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>57.65873494519105</v>
+        <v>57.65873494512446</v>
       </c>
       <c r="C537">
-        <v>68.67734785259593</v>
+        <v>68.67734785261962</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6292,10 +6292,10 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>52.21967460977363</v>
+        <v>52.21967460979947</v>
       </c>
       <c r="C538">
-        <v>62.3764146950571</v>
+        <v>62.37641469518209</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6303,10 +6303,10 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>49.15862875391985</v>
+        <v>49.15862875389664</v>
       </c>
       <c r="C539">
-        <v>58.75083517745385</v>
+        <v>58.75083517743293</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6314,10 +6314,10 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>49.93503961685308</v>
+        <v>49.93503961676154</v>
       </c>
       <c r="C540">
-        <v>59.55023353951714</v>
+        <v>59.55023353962423</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6325,10 +6325,10 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>43.07622957825453</v>
+        <v>43.07622957836065</v>
       </c>
       <c r="C541">
-        <v>51.69944279180059</v>
+        <v>51.6994427919106</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6336,10 +6336,10 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>35.0289338393823</v>
+        <v>35.02893383939347</v>
       </c>
       <c r="C542">
-        <v>42.29167129763599</v>
+        <v>42.29167129756289</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6347,10 +6347,10 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>35.13082798216503</v>
+        <v>35.13082798200819</v>
       </c>
       <c r="C543">
-        <v>42.13649736814882</v>
+        <v>42.13649736815145</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6358,10 +6358,10 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>28.80652915467138</v>
+        <v>28.80652915482725</v>
       </c>
       <c r="C544">
-        <v>35.00704169083155</v>
+        <v>35.00704169076176</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6369,10 +6369,10 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.74479440747573</v>
+        <v>27.74479440761459</v>
       </c>
       <c r="C545">
-        <v>33.58122832267899</v>
+        <v>33.5812283226085</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6380,10 +6380,10 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>20.9738138893044</v>
+        <v>20.97381388916203</v>
       </c>
       <c r="C546">
-        <v>25.93222970915759</v>
+        <v>25.93222970913996</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6391,10 +6391,10 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>14.45741378251974</v>
+        <v>14.45741378251766</v>
       </c>
       <c r="C547">
-        <v>18.41014541344997</v>
+        <v>18.41014541346977</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6402,10 +6402,10 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>8.807554803780084</v>
+        <v>8.807554803886564</v>
       </c>
       <c r="C548">
-        <v>11.01332432433095</v>
+        <v>11.01332432432946</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6413,10 +6413,10 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>10.60395889865969</v>
+        <v>10.6039588985976</v>
       </c>
       <c r="C549">
-        <v>10.60395889865969</v>
+        <v>10.6039588985976</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6424,10 +6424,10 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>11.22165019126291</v>
+        <v>11.22165019127826</v>
       </c>
       <c r="C550">
-        <v>11.22165019126291</v>
+        <v>11.22165019127826</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6435,10 +6435,10 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>27.66535835208424</v>
+        <v>27.6653583521291</v>
       </c>
       <c r="C551">
-        <v>27.66535835208424</v>
+        <v>27.6653583521291</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6446,10 +6446,10 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>38.863804526423</v>
+        <v>38.86380452635551</v>
       </c>
       <c r="C552">
-        <v>38.863804526423</v>
+        <v>38.86380452635551</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6457,10 +6457,10 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>49.68114744592106</v>
+        <v>49.68114744591133</v>
       </c>
       <c r="C553">
-        <v>49.68114744592106</v>
+        <v>49.68114744591133</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6468,10 +6468,10 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>62.95659931704761</v>
+        <v>62.95659931710955</v>
       </c>
       <c r="C554">
-        <v>64.44340007656554</v>
+        <v>64.44340007652836</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6479,10 +6479,10 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>72.2149250080553</v>
+        <v>72.21492500783488</v>
       </c>
       <c r="C555">
-        <v>76.0043744217549</v>
+        <v>76.00437442172672</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6490,10 +6490,10 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>74.03643938925765</v>
+        <v>74.03643938929575</v>
       </c>
       <c r="C556">
-        <v>77.95868719180177</v>
+        <v>77.9586871919394</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6501,10 +6501,10 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>77.73802659670179</v>
+        <v>77.73802659671479</v>
       </c>
       <c r="C557">
-        <v>82.04665747826803</v>
+        <v>82.04665747818287</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6512,10 +6512,10 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>90.46612370468441</v>
+        <v>90.4661237046916</v>
       </c>
       <c r="C558">
-        <v>97.89780877209169</v>
+        <v>97.89780877227545</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6523,10 +6523,10 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>96.76540626997475</v>
+        <v>96.76540626983129</v>
       </c>
       <c r="C559">
-        <v>104.7675406661534</v>
+        <v>104.7675406663099</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6534,10 +6534,10 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>93.90774394370956</v>
+        <v>93.90774394375397</v>
       </c>
       <c r="C560">
-        <v>101.5585508392896</v>
+        <v>101.5585508392119</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6545,10 +6545,10 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>86.50553237338436</v>
+        <v>86.50553237344391</v>
       </c>
       <c r="C561">
-        <v>110.2328752468361</v>
+        <v>110.232875246911</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6556,10 +6556,10 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>90.62992464452174</v>
+        <v>90.62992464447979</v>
       </c>
       <c r="C562">
-        <v>116.9958622363679</v>
+        <v>116.9958622362816</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6567,10 +6567,10 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>97.73367890392288</v>
+        <v>97.73367890388556</v>
       </c>
       <c r="C563">
-        <v>107.9925089983544</v>
+        <v>107.9925089983013</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6578,10 +6578,10 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>90.17539637906518</v>
+        <v>90.17539637891662</v>
       </c>
       <c r="C564">
-        <v>99.57229087532093</v>
+        <v>99.57229087540792</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6589,10 +6589,10 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>88.55237882822743</v>
+        <v>88.55237882827167</v>
       </c>
       <c r="C565">
-        <v>97.70683482669482</v>
+        <v>97.70683482659936</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6600,10 +6600,10 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>90.93889539988635</v>
+        <v>90.93889539984004</v>
       </c>
       <c r="C566">
-        <v>100.6750966248572</v>
+        <v>100.6750966248685</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6611,10 +6611,10 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>80.56406519528814</v>
+        <v>80.56406519537555</v>
       </c>
       <c r="C567">
-        <v>89.08961647965867</v>
+        <v>89.08961647966834</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6622,10 +6622,10 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>70.97762693366772</v>
+        <v>70.97762693369782</v>
       </c>
       <c r="C568">
-        <v>78.20521121766016</v>
+        <v>78.20521121767764</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6633,10 +6633,10 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>62.4698553082679</v>
+        <v>62.46985530816951</v>
       </c>
       <c r="C569">
-        <v>68.55930368857511</v>
+        <v>68.55930368864499</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6644,10 +6644,10 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>63.8328761526418</v>
+        <v>63.83287615259704</v>
       </c>
       <c r="C570">
-        <v>70.43091938854428</v>
+        <v>70.43091938849929</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6655,10 +6655,10 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>50.52203225880613</v>
+        <v>50.52203225871052</v>
       </c>
       <c r="C571">
-        <v>55.29509180574308</v>
+        <v>55.29509180572029</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6666,10 +6666,10 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>35.09448967218864</v>
+        <v>35.0944896720506</v>
       </c>
       <c r="C572">
-        <v>37.52729927597945</v>
+        <v>37.52729927603679</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6677,10 +6677,10 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>31.56138405157611</v>
+        <v>31.56138405157986</v>
       </c>
       <c r="C573">
-        <v>33.43414738043273</v>
+        <v>33.43414738043422</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6688,10 +6688,10 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>23.37516313094616</v>
+        <v>23.37516313090954</v>
       </c>
       <c r="C574">
-        <v>24.05998026147039</v>
+        <v>24.05998026152833</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6699,10 +6699,10 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>15.1491515969468</v>
+        <v>15.14915159707467</v>
       </c>
       <c r="C575">
-        <v>15.1491515969468</v>
+        <v>15.14915159707467</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6710,10 +6710,10 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>11.31084202536301</v>
+        <v>11.31084202540206</v>
       </c>
       <c r="C576">
-        <v>11.31084202536301</v>
+        <v>11.31084202540206</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6721,10 +6721,10 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>10.6228986740548</v>
+        <v>10.62289867401844</v>
       </c>
       <c r="C577">
-        <v>10.6228986740548</v>
+        <v>10.62289867401844</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6732,10 +6732,10 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>10.06930877532116</v>
+        <v>10.0693087751491</v>
       </c>
       <c r="C578">
-        <v>10.33031863823042</v>
+        <v>10.33031863817518</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6743,10 +6743,10 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7.988136092393328</v>
+        <v>7.988136092345909</v>
       </c>
       <c r="C579">
-        <v>7.988136092393328</v>
+        <v>7.988136092345909</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6754,10 +6754,10 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>9.948489626525697</v>
+        <v>9.948489626572551</v>
       </c>
       <c r="C580">
-        <v>10.22382836791884</v>
+        <v>10.22382836792022</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6765,10 +6765,10 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>10.95325007544545</v>
+        <v>10.95325007561062</v>
       </c>
       <c r="C581">
-        <v>11.41996736489282</v>
+        <v>11.41996736488047</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6776,10 +6776,10 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>9.965523105329469</v>
+        <v>9.965523105261173</v>
       </c>
       <c r="C582">
-        <v>10.14207956568932</v>
+        <v>10.1420795656367</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6787,10 +6787,10 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>12.91518011878406</v>
+        <v>12.91518011884632</v>
       </c>
       <c r="C583">
-        <v>13.72062497269158</v>
+        <v>13.72062497282194</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6798,10 +6798,10 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8.953428849580595</v>
+        <v>8.953428849433667</v>
       </c>
       <c r="C584">
-        <v>8.980356864110574</v>
+        <v>8.980356864142074</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6809,10 +6809,10 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>9.255147062869733</v>
+        <v>9.255147062900456</v>
       </c>
       <c r="C585">
-        <v>9.367704769561273</v>
+        <v>9.367704769464511</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6820,10 +6820,10 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>11.40492860804061</v>
+        <v>11.40492860809098</v>
       </c>
       <c r="C586">
-        <v>11.84828999076669</v>
+        <v>11.8482899907353</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6831,10 +6831,10 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>14.32571924110698</v>
+        <v>14.32571924098756</v>
       </c>
       <c r="C587">
-        <v>15.52166815578302</v>
+        <v>15.52166815581223</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6842,10 +6842,10 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>16.5647090401759</v>
+        <v>16.56470904017648</v>
       </c>
       <c r="C588">
-        <v>18.47775241477335</v>
+        <v>18.47775241472674</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6853,10 +6853,10 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>14.0566724241813</v>
+        <v>14.05667242398211</v>
       </c>
       <c r="C589">
-        <v>15.28229686189343</v>
+        <v>15.28229686195508</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6864,10 +6864,10 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>13.38909494266594</v>
+        <v>13.38909494256207</v>
       </c>
       <c r="C590">
-        <v>14.18927511843628</v>
+        <v>14.18927511840362</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6875,10 +6875,10 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>11.46698624036603</v>
+        <v>11.46698624044825</v>
       </c>
       <c r="C591">
-        <v>11.85430301246247</v>
+        <v>11.85430301233306</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6886,10 +6886,10 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>12.54921465809336</v>
+        <v>12.54921465810908</v>
       </c>
       <c r="C592">
-        <v>13.21229828813865</v>
+        <v>13.21229828813672</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6897,10 +6897,10 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>15.24580639750606</v>
+        <v>15.2458063974647</v>
       </c>
       <c r="C593">
-        <v>16.67514200461748</v>
+        <v>16.67514200464277</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6908,10 +6908,10 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>13.0710604660617</v>
+        <v>13.07106046594703</v>
       </c>
       <c r="C594">
-        <v>13.77648392724355</v>
+        <v>13.7764839273482</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6919,10 +6919,10 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>15.02191582114974</v>
+        <v>15.02191582107957</v>
       </c>
       <c r="C595">
-        <v>16.50553684855462</v>
+        <v>16.50553684857304</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6930,10 +6930,10 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>16.94702969460011</v>
+        <v>16.94702969463291</v>
       </c>
       <c r="C596">
-        <v>19.04565663029121</v>
+        <v>19.04565663005687</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6941,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>13.90306645025263</v>
+        <v>13.90306645043726</v>
       </c>
       <c r="C597">
-        <v>15.00859281504137</v>
+        <v>15.00859281504644</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6952,10 +6952,10 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>16.48287921048887</v>
+        <v>16.48287921055548</v>
       </c>
       <c r="C598">
-        <v>18.31496640169735</v>
+        <v>18.31496640162076</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6963,10 +6963,10 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>20.7830355019973</v>
+        <v>20.78303550189599</v>
       </c>
       <c r="C599">
-        <v>23.57274642532609</v>
+        <v>23.57274642518</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6974,10 +6974,10 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>29.56145250990962</v>
+        <v>29.56145250975396</v>
       </c>
       <c r="C600">
-        <v>34.03679442443624</v>
+        <v>34.03679442451217</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6985,10 +6985,10 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>27.83583283809761</v>
+        <v>27.83583283813676</v>
       </c>
       <c r="C601">
-        <v>32.19680325921985</v>
+        <v>32.1968032591306</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6996,10 +6996,10 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>36.10807893242457</v>
+        <v>36.10807893239284</v>
       </c>
       <c r="C602">
-        <v>41.75075079109777</v>
+        <v>41.75075079107572</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7007,10 +7007,10 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>33.20991613499028</v>
+        <v>33.20991613498894</v>
       </c>
       <c r="C603">
-        <v>38.60893950697513</v>
+        <v>38.60893950713266</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7018,10 +7018,10 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>42.63487654460516</v>
+        <v>42.63487654461574</v>
       </c>
       <c r="C604">
-        <v>49.02401631237772</v>
+        <v>49.02401631234869</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7029,10 +7029,10 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>50.97710626753934</v>
+        <v>50.9771062674694</v>
       </c>
       <c r="C605">
-        <v>58.60606475702453</v>
+        <v>58.60606475704375</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7040,10 +7040,10 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>45.35757176534621</v>
+        <v>45.35757176531025</v>
       </c>
       <c r="C606">
-        <v>52.399664271334</v>
+        <v>52.39966427131346</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7051,10 +7051,10 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>47.56955906225107</v>
+        <v>47.56955906208982</v>
       </c>
       <c r="C607">
-        <v>55.06815485884551</v>
+        <v>55.06815485886221</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7062,10 +7062,10 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>53.31070210165571</v>
+        <v>53.31070210175574</v>
       </c>
       <c r="C608">
-        <v>61.6841767952105</v>
+        <v>61.68417679516276</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7073,10 +7073,10 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>61.91973590304885</v>
+        <v>61.9197359031261</v>
       </c>
       <c r="C609">
-        <v>70.79479704301285</v>
+        <v>70.79479704310003</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7084,10 +7084,10 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>69.98655674419024</v>
+        <v>69.98655674416459</v>
       </c>
       <c r="C610">
-        <v>79.92870819136746</v>
+        <v>79.9287081914095</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7095,10 +7095,10 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>63.19595309570802</v>
+        <v>63.19595309565269</v>
       </c>
       <c r="C611">
-        <v>72.65794376300899</v>
+        <v>72.65794376292565</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7106,10 +7106,10 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>63.17940134019804</v>
+        <v>63.17940134013831</v>
       </c>
       <c r="C612">
-        <v>72.86617426285412</v>
+        <v>72.86617426314832</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7117,10 +7117,10 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>64.955388038376</v>
+        <v>64.95538803851613</v>
       </c>
       <c r="C613">
-        <v>75.43195048109705</v>
+        <v>75.43195048113823</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7128,10 +7128,10 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>62.22013181597797</v>
+        <v>62.22013181590802</v>
       </c>
       <c r="C614">
-        <v>72.60480563519751</v>
+        <v>72.60480563504345</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7139,10 +7139,10 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>63.97746504539032</v>
+        <v>63.97746504528927</v>
       </c>
       <c r="C615">
-        <v>74.86829911539988</v>
+        <v>74.86829911559421</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7150,10 +7150,10 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>60.39643712856891</v>
+        <v>60.39643712853569</v>
       </c>
       <c r="C616">
-        <v>71.03647427126147</v>
+        <v>71.0364742711926</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7161,10 +7161,10 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>55.35015047436259</v>
+        <v>55.35015047433179</v>
       </c>
       <c r="C617">
-        <v>65.76243990485233</v>
+        <v>65.7624399047596</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7172,10 +7172,10 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>59.09708169811012</v>
+        <v>59.09708169810649</v>
       </c>
       <c r="C618">
-        <v>70.23250284411633</v>
+        <v>70.23250284411459</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7183,10 +7183,10 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>47.84416784784364</v>
+        <v>47.84416784781153</v>
       </c>
       <c r="C619">
-        <v>57.57206756942488</v>
+        <v>57.57206756959206</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7194,10 +7194,10 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>50.29832278830323</v>
+        <v>50.29832278834687</v>
       </c>
       <c r="C620">
-        <v>60.61057463843399</v>
+        <v>60.61057463841077</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7205,10 +7205,10 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>38.25207460647956</v>
+        <v>38.25207460640413</v>
       </c>
       <c r="C621">
-        <v>47.2171151316015</v>
+        <v>47.21711513168388</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7216,10 +7216,10 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>43.76125987563493</v>
+        <v>43.76125987563452</v>
       </c>
       <c r="C622">
-        <v>53.59329054908344</v>
+        <v>53.59329054910697</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7227,10 +7227,10 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>37.76427073264544</v>
+        <v>37.76427073252619</v>
       </c>
       <c r="C623">
-        <v>47.17641983861506</v>
+        <v>47.17641983866967</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7238,10 +7238,10 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>38.29184073280996</v>
+        <v>38.29184073275442</v>
       </c>
       <c r="C624">
-        <v>48.06778517406836</v>
+        <v>48.06778517412763</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7249,10 +7249,10 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>34.00841118277646</v>
+        <v>34.00841118276569</v>
       </c>
       <c r="C625">
-        <v>43.68051812092479</v>
+        <v>43.68051812091159</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7260,10 +7260,10 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>22.13848203433946</v>
+        <v>22.13848203427043</v>
       </c>
       <c r="C626">
-        <v>31.02483421611132</v>
+        <v>31.02483421607422</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7271,10 +7271,10 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>24.13940337573059</v>
+        <v>24.13940337552286</v>
       </c>
       <c r="C627">
-        <v>32.94335990871708</v>
+        <v>32.94335990872703</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7282,7 +7282,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>24.6695347919335</v>
+        <v>24.66953479185588</v>
       </c>
       <c r="C628">
         <v>33.53494911645111</v>
@@ -7293,10 +7293,10 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>21.05671970843899</v>
+        <v>21.05671970834077</v>
       </c>
       <c r="C629">
-        <v>29.46501521407904</v>
+        <v>29.46501521402459</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7304,10 +7304,10 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>26.56267575995307</v>
+        <v>26.56267576008196</v>
       </c>
       <c r="C630">
-        <v>35.30404796187045</v>
+        <v>35.30404796182594</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7315,10 +7315,10 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>31.50443228727753</v>
+        <v>31.50443228731071</v>
       </c>
       <c r="C631">
-        <v>40.53924581819992</v>
+        <v>40.53924581816168</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7326,10 +7326,10 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>33.05936280853478</v>
+        <v>33.05936280844652</v>
       </c>
       <c r="C632">
-        <v>41.90550196743654</v>
+        <v>41.9055019674312</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7337,10 +7337,10 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>27.2762329827846</v>
+        <v>27.27623298285358</v>
       </c>
       <c r="C633">
-        <v>35.28626476243469</v>
+        <v>35.28626476238639</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7348,10 +7348,10 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>35.47960761024747</v>
+        <v>35.47960761022063</v>
       </c>
       <c r="C634">
-        <v>43.97746265269458</v>
+        <v>43.97746265274296</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7359,10 +7359,10 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>34.80904267671576</v>
+        <v>34.80904267681632</v>
       </c>
       <c r="C635">
-        <v>42.85577496004543</v>
+        <v>42.85577495997845</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7370,10 +7370,10 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>35.37905966154848</v>
+        <v>35.37905966151372</v>
       </c>
       <c r="C636">
-        <v>43.34990019731489</v>
+        <v>43.3499001973483</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7381,10 +7381,10 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>43.87070501345666</v>
+        <v>43.87070501350103</v>
       </c>
       <c r="C637">
-        <v>52.65898333852562</v>
+        <v>52.65898333860128</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7392,10 +7392,10 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>40.14574563367003</v>
+        <v>40.14574563370454</v>
       </c>
       <c r="C638">
-        <v>48.13023907238543</v>
+        <v>48.13023907234506</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7403,10 +7403,10 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>42.92250103492318</v>
+        <v>42.92250103489884</v>
       </c>
       <c r="C639">
-        <v>51.19445830534325</v>
+        <v>51.19445830544817</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7414,10 +7414,10 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>38.06944436088314</v>
+        <v>38.06944436083221</v>
       </c>
       <c r="C640">
-        <v>45.43645960299662</v>
+        <v>45.43645960290771</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7425,10 +7425,10 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>33.1898776216029</v>
+        <v>33.18987762161937</v>
       </c>
       <c r="C641">
-        <v>39.81986905942962</v>
+        <v>39.81986905947604</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7436,10 +7436,10 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>36.32272773907561</v>
+        <v>36.32272773903898</v>
       </c>
       <c r="C642">
-        <v>43.15524884932162</v>
+        <v>43.15524884927098</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7447,10 +7447,10 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>20.19667749464222</v>
+        <v>20.19667749467109</v>
       </c>
       <c r="C643">
-        <v>24.73440541664014</v>
+        <v>24.73440541652826</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7458,10 +7458,10 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>27.78765824008876</v>
+        <v>27.78765824010526</v>
       </c>
       <c r="C644">
-        <v>33.06084881074241</v>
+        <v>33.06084881070612</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7469,10 +7469,10 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>13.55034769078499</v>
+        <v>13.55034769066254</v>
       </c>
       <c r="C645">
-        <v>16.86035826871235</v>
+        <v>16.86035826884408</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7480,10 +7480,10 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>14.62094812113977</v>
+        <v>14.62094812120104</v>
       </c>
       <c r="C646">
-        <v>17.96142568097113</v>
+        <v>17.96142568113085</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7491,10 +7491,10 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>7.715230259519249</v>
+        <v>7.715230259403332</v>
       </c>
       <c r="C647">
-        <v>8.609797937640101</v>
+        <v>8.609797937720934</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7502,10 +7502,10 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>8.145519415246186</v>
+        <v>8.145519415278693</v>
       </c>
       <c r="C648">
-        <v>8.145519415246186</v>
+        <v>8.145519415278693</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7513,10 +7513,10 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>9.122239645828092</v>
+        <v>9.122239645860237</v>
       </c>
       <c r="C649">
-        <v>9.122239645828092</v>
+        <v>9.122239645860237</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7524,10 +7524,10 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>13.89500366804601</v>
+        <v>13.89500366807657</v>
       </c>
       <c r="C650">
-        <v>13.89500366804601</v>
+        <v>13.89500366807657</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7535,10 +7535,10 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>31.09584022934943</v>
+        <v>31.09584022939457</v>
       </c>
       <c r="C651">
-        <v>31.09584022934943</v>
+        <v>31.09584022939457</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7546,10 +7546,10 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>42.82867698826086</v>
+        <v>42.82867698825157</v>
       </c>
       <c r="C652">
-        <v>42.8532884866396</v>
+        <v>42.85328848669467</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7557,10 +7557,10 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>51.05461994171488</v>
+        <v>51.05461994175388</v>
       </c>
       <c r="C653">
-        <v>52.5333952413711</v>
+        <v>52.53339524143485</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7568,10 +7568,10 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>58.2491974992651</v>
+        <v>58.24919749933135</v>
       </c>
       <c r="C654">
-        <v>60.49156222177196</v>
+        <v>60.49156222173384</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7579,10 +7579,10 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>58.89625660012885</v>
+        <v>58.896256600179</v>
       </c>
       <c r="C655">
-        <v>61.1288563517182</v>
+        <v>61.12885635183688</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7590,10 +7590,10 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>65.56963117421309</v>
+        <v>65.56963117405682</v>
       </c>
       <c r="C656">
-        <v>68.14612322922841</v>
+        <v>68.14612322945254</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7601,10 +7601,10 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>69.01552403616382</v>
+        <v>69.01552403614085</v>
       </c>
       <c r="C657">
-        <v>73.25866682012759</v>
+        <v>73.25866682008233</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7612,10 +7612,10 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>75.48657175106767</v>
+        <v>75.4865717510834</v>
       </c>
       <c r="C658">
-        <v>80.20912262158024</v>
+        <v>80.20912262153345</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7623,10 +7623,10 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>71.63638191221466</v>
+        <v>71.63638191234683</v>
       </c>
       <c r="C659">
-        <v>76.03645435734822</v>
+        <v>76.03645435737818</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7634,10 +7634,10 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>73.11428860924875</v>
+        <v>73.11428860925928</v>
       </c>
       <c r="C660">
-        <v>77.96611984684388</v>
+        <v>77.96611984676105</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7645,10 +7645,10 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>68.31922263493183</v>
+        <v>68.31922263508115</v>
       </c>
       <c r="C661">
-        <v>72.40052458967979</v>
+        <v>72.40052458947318</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7656,10 +7656,10 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>68.74190606420844</v>
+        <v>68.74190606429926</v>
       </c>
       <c r="C662">
-        <v>73.22136921134451</v>
+        <v>73.22136921131698</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7667,10 +7667,10 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>63.62558685132822</v>
+        <v>63.62558685128181</v>
       </c>
       <c r="C663">
-        <v>67.75195317747479</v>
+        <v>67.75195317750084</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7678,10 +7678,10 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>54.72618139947274</v>
+        <v>54.72618139930942</v>
       </c>
       <c r="C664">
-        <v>57.78389245224954</v>
+        <v>57.78389245217591</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7689,10 +7689,10 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>49.37924426110501</v>
+        <v>49.37924426106821</v>
       </c>
       <c r="C665">
-        <v>52.07332352205237</v>
+        <v>52.0733235221067</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7700,10 +7700,10 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>46.99719135977069</v>
+        <v>46.99719135986317</v>
       </c>
       <c r="C666">
-        <v>49.70037879835529</v>
+        <v>49.70037879835528</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7711,10 +7711,10 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>34.12656194866785</v>
+        <v>34.12656194876416</v>
       </c>
       <c r="C667">
-        <v>35.10728778420282</v>
+        <v>35.10728778422775</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7722,10 +7722,10 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>32.99623091769725</v>
+        <v>32.99623091764919</v>
       </c>
       <c r="C668">
-        <v>33.97333248171937</v>
+        <v>33.97333248157469</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>29.18603086905713</v>
+        <v>29.18603086901832</v>
       </c>
       <c r="C669">
-        <v>29.89929405806849</v>
+        <v>29.89929405821961</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>20.12546079437011</v>
+        <v>20.12546079456156</v>
       </c>
       <c r="C670">
-        <v>20.12546079437011</v>
+        <v>20.12546079456156</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>10.72682548005763</v>
+        <v>10.72682548008887</v>
       </c>
       <c r="C671">
-        <v>10.72682548005763</v>
+        <v>10.72682548008887</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7766,10 +7766,10 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8.537063081779877</v>
+        <v>8.537063081800166</v>
       </c>
       <c r="C672">
-        <v>8.537063081779877</v>
+        <v>8.537063081800166</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7777,10 +7777,10 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>7.829748841762115</v>
+        <v>7.82974884189471</v>
       </c>
       <c r="C673">
-        <v>7.829748841762115</v>
+        <v>7.82974884189471</v>
       </c>
     </row>
   </sheetData>
